--- a/quiz/betamori.xlsx
+++ b/quiz/betamori.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\AC_WEB_DFN\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186237D9-1B9F-4ECC-BF34-B9B117FA8236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66142B3D-6D9A-4D87-AA55-BE32403A7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クイズ" sheetId="1" r:id="rId1"/>
     <sheet name="語源" sheetId="2" r:id="rId2"/>
     <sheet name="NTT3桁" sheetId="3" r:id="rId3"/>
     <sheet name="自作問題" sheetId="4" r:id="rId4"/>
-    <sheet name="タイトル戦" sheetId="6" r:id="rId5"/>
-    <sheet name="時代区分_元号" sheetId="5" r:id="rId6"/>
+    <sheet name="ナスクイズ" sheetId="7" r:id="rId5"/>
+    <sheet name="ナスクイズ2" sheetId="8" r:id="rId6"/>
+    <sheet name="タイトル戦" sheetId="6" r:id="rId7"/>
+    <sheet name="時代区分_元号" sheetId="5" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ナスクイズ!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ナスクイズ2!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="3136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="3256">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -13215,6 +13221,913 @@
   </si>
   <si>
     <t>ナスタアリーク体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうなす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏目漱石の小説「坊ちゃん」で、坊ちゃんが英語教師の古賀に対してつけたあだ名の由来は、その青白いふくれた容姿になった原因が、「うらなりの何ばかり食べているから」でしょう</t>
+    <rPh sb="0" eb="4">
+      <t>ナツメソウセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウセツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ボッ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ボッ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コガ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ユライ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>アオジロ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぼちゃのこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムカルナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァレリー・ソラナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウルビーノのヴィーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナスイオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険なビーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	マイナス40度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なすに任せよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッセフェール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オイキムチのオイはきゅうりのことですが、カジキムチのカジはなんという野菜のことでしょう</t>
+    <rPh sb="34" eb="36">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野菜の切り方で、「じゃばら切り」にするのはキュウリですが、「茶筅(ちゃせん)切り」にするのは何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナスターシャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トルストイの小説「白痴」で、白痴のムイシュキンとの結婚式で、愛人のラゴージンの凶刃によって倒れるヒロインの名前は何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摂氏温度と華氏温度が同じ目盛りになるのは何度の時でしょう？</t>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナスイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイウス・マエケナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンパルナスの灯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウナストーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラス・メニーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NASU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルビナス戦争</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴィーナスとアドーニス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生涯収支マイナス1億円君(マイ億君)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お笑いコンビ・霜降り明星の粗品が自身のYouTubeチャンネルで、自身のギャンブルで大きく負けることから、何と名乗っている？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナスの花</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>俗に「千にひとつの無駄もない」といわれるのは、親の意見と何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>創立した中国系アメリカ人の名前を冠した、バラや蝶をモチーフにしたデザインが特徴の、人気ファッションブランドは何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お坊さんが気絶するくらいおいしいナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パトゥルジャン・イマム・バユルドゥ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウナス領事館</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉原千畝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウルピカ、ペチュニア、ハシリドコロ、ベラドンナ、ミリオンベル、マンドラゴラ、ホオズキ、チョウセンアサガオ、タバコ、ジャガイモ、トマトといえば何科の植物でしょう</t>
+    <rPh sb="70" eb="71">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片方を日本企業が、もう片方を韓国企業が建設したことでも知られている、マレーシアにあるツインタワーは何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペトロナスツインタワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラナダに首都を起き、アルハンブラ宮殿の造営でも知られる、1492年にスペインのレコンキスタ運動によって征服されて消滅した、イベリア半島最後のイスラム王朝は何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペイン語で「女官たち」という意味がある1656年にディエゴ・ベラスケスにより制作された絵画は何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語では「Japanese rose」などという、茨城県にある公園にその名が冠されていることや、北海道の道の花として知られるバラ科の植物は何でしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナスのネジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラスのネジとマイナスのネジのうち、先に発明されたのはどちらでしょう</t>
+    <rPh sb="18" eb="19">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱を吸収して保持する、蒸気を発生させる、匂いによってリラックスを生むといった効果がある、サウナで用いられる石のことを一般になんというでしょう</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ニオ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローマ帝国初代皇帝アウグストゥスの腹心であった人物で、芸術活動を積極的に支援したことから、企業の文化・芸術活動支援を意味する「メセナ」の由来となった人物はだれでしょう？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいなSTORES/イイナストアーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんなスポーツ、他にないだろ？DRAMATIC SPORTS. KEIRIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">瓜の蔓に茄子はならぬ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うりのつるになすびはならぬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「平凡な親からは非凡な子供は生まれない」ということを、平凡な植物と非凡な植物を使ったことわざでなんというでしょう</t>
+    <rPh sb="27" eb="29">
+      <t>ヘイボン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒボン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴かぬなら殺してしまえホトトギス</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビエストークス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膾（なます）</t>
+    <rPh sb="0" eb="1">
+      <t>ナマス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナートゥダンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋城ステークス</t>
+    <rPh sb="0" eb="4">
+      <t>ナゴヤジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナバルデウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナチュラルサイエンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成田スカイアクセス</t>
+    <rPh sb="0" eb="2">
+      <t>ナリタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナチュラルプロセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名は体を表す</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流れに掉さす</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴かぬ蛍が身を焦がす</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホタル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ななついろ★ドロップス </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川パラダイス</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内臓グラフィックス</t>
+    <rPh sb="0" eb="2">
+      <t>ナイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴いたカラス</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイトビジネス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイトロックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイスミディパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無き手を出だす</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無きになす</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナクソス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げキッス</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナチョス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナノセルロース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナノオプティクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナレッジベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名を腐す</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成りすましウィルス</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンキンジュス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	ないもの、あります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏のクリスマス</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんでだろうクリスマス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏の終りにあなたへの手紙書きとめています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナスタチウムと「ダンス」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎の彼女X</t>
+    <rPh sb="0" eb="1">
+      <t>ナゾ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文学</t>
+    <rPh sb="0" eb="2">
+      <t>ブンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競馬</t>
+    <rPh sb="0" eb="2">
+      <t>ケイバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科学</t>
+    <rPh sb="0" eb="2">
+      <t>カガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地理</t>
+    <rPh sb="0" eb="2">
+      <t>チリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芸能</t>
+    <rPh sb="0" eb="2">
+      <t>ゲイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <rPh sb="0" eb="2">
+      <t>セイカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナーバス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友</t>
+    <rPh sb="0" eb="1">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並び替え</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船水颯斗（ふねみずはやと）、芳村玲（よしむられい）、高橋衛司（たかはしえいじ）といえば、何という球技のプロ選手でしょう</t>
+    <rPh sb="44" eb="45">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キュウギ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有名な都都逸の一つで、「恋し恋しと鳴く蝉よりも」に続く言葉は何でしょう</t>
+    <rPh sb="0" eb="2">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ドドイツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>セミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もともとはアメリカのパズル誌に載っていたものを鍜治真起（かじまき）が日本に広めたパズルで、3×3のグループに区切られた 9×9の正方形の枠内に1〜9までの数字を入れるペンシルパズルの一つはなんでしょう</t>
+    <rPh sb="13" eb="14">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軟式テニス
+（○ソフトテニス）</t>
+    <rPh sb="0" eb="2">
+      <t>ナンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンバープレース
+（○ナンプレ）
+（○数独）</t>
+    <rPh sb="19" eb="21">
+      <t>スウドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神話</t>
+    <rPh sb="0" eb="2">
+      <t>シンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナス
+（○ナス科）</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言葉</t>
+    <rPh sb="0" eb="2">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことわざで、過去の失敗に懲りて必要以上に用心深くなることを、「羹に懲りて何を吹く」というでしょう</t>
+    <rPh sb="36" eb="37">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅記えり（くれなぎえり）、薬袋カルテ (みないかるて)、名取さな（なとりさな）といえば、いずれもどのような職業をモチーフにしたVtuberでしょう</t>
+    <rPh sb="53" eb="55">
+      <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vtuber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古琴（こきん）の、莫逆（ばくぎゃく）の、心腹（しんぷく）の、竹馬（ちくば）の、の後ろに共通して付く、常日頃親しく交わっている相手のことを指す漢字一文字はなんでしょう</t>
+    <rPh sb="0" eb="1">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バクギャク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンプク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チクバ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ツネヒゴロ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>マジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ヒトモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日が沈むとぬいぐるみの姿になる体質になってしまった石蕗正晴（つわぶきまさはる）が、人間の姿に戻るため、ステラスピニアの力を借りて「星のしずく」を7つ集めるというストーリーの、2007年にはアニメ化もされたゲームのタイトルはなんでしょう</t>
+    <rPh sb="15" eb="17">
+      <t>タイシツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漫画「葬送のフリーレン」の4巻でフリーレンがみせた、勇者ヒンメルを失神させ、シュタルクには「エッチすぎる」と言わせた行為はなんでしょう</t>
+    <rPh sb="0" eb="2">
+      <t>マンガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウシャ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シッシン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プッシュ！プッシュ！」「ガリラッパガリラッパペナーレペナーレ」「パーラダーイス」などのギャグを持つ、村本大輔（むらもとだいすけ）と共にウーマンラッシュアワーを結成している芸人は誰でしょう</t>
+    <rPh sb="48" eb="49">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ムラモト</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ケッセイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ゲイニン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ダレ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13311,7 +14224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -13337,6 +14250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -30075,7 +30989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1AD7FC-B2A7-4ADD-BEC9-57ECE1239ECA}">
   <dimension ref="B2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -30457,7 +31373,9 @@
         <v>35</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>3136</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5">
@@ -30619,6 +31537,1700 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C0EF8C-738E-405E-9110-CAF92A7E19D1}">
+  <dimension ref="B2:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="56.69921875" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="54">
+      <c r="B3" s="3">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" ht="36">
+      <c r="B4" s="3">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" ht="36">
+      <c r="B5" s="3">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" ht="54">
+      <c r="B6" s="3">
+        <f>ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="54">
+      <c r="B7" s="3">
+        <f>ROW()-2</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="36">
+      <c r="B8" s="3">
+        <f>ROW()-2</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" ht="36">
+      <c r="B9" s="3">
+        <f>ROW()-2</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" ht="54">
+      <c r="B10" s="3">
+        <f>ROW()-2</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="54">
+      <c r="B11" s="3">
+        <f>ROW()-2</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" ht="36">
+      <c r="B12" s="3">
+        <f>ROW()-2</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" ht="54">
+      <c r="B13" s="3">
+        <f>ROW()-2</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" ht="54">
+      <c r="B14" s="3">
+        <f>ROW()-2</f>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3">
+        <f>ROW()-2</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="36">
+      <c r="B16" s="3">
+        <f>ROW()-2</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="36">
+      <c r="B17" s="3">
+        <f>ROW()-2</f>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" ht="36">
+      <c r="B18" s="3">
+        <f>ROW()-2</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3172</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" ht="36">
+      <c r="B19" s="3">
+        <f>ROW()-2</f>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3">
+        <f>ROW()-2</f>
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3">
+        <f>ROW()-2</f>
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3">
+        <f>ROW()-2</f>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3">
+        <f>ROW()-2</f>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3">
+        <f>ROW()-2</f>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3">
+        <f>ROW()-2</f>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3">
+        <f>ROW()-2</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3">
+        <f>ROW()-2</f>
+        <v>25</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="3">
+        <f>ROW()-2</f>
+        <v>26</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="3">
+        <f>ROW()-2</f>
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="3">
+        <f>ROW()-2</f>
+        <v>28</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3">
+        <f>ROW()-2</f>
+        <v>29</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="3">
+        <f>ROW()-2</f>
+        <v>30</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3">
+        <f>ROW()-2</f>
+        <v>31</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3">
+        <f>ROW()-2</f>
+        <v>32</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="3">
+        <f>ROW()-2</f>
+        <v>33</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="3">
+        <f>ROW()-2</f>
+        <v>34</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="3">
+        <f>ROW()-2</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="3">
+        <f>ROW()-2</f>
+        <v>36</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="3">
+        <f>ROW()-2</f>
+        <v>37</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="3">
+        <f>ROW()-2</f>
+        <v>38</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="3">
+        <f>ROW()-2</f>
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="3">
+        <f>ROW()-2</f>
+        <v>40</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="3">
+        <f>ROW()-2</f>
+        <v>41</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="3">
+        <f>ROW()-2</f>
+        <v>42</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="3">
+        <f>ROW()-2</f>
+        <v>43</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="3">
+        <f>ROW()-2</f>
+        <v>44</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="3">
+        <f>ROW()-2</f>
+        <v>45</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="3">
+        <f>ROW()-2</f>
+        <v>46</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="3">
+        <f>ROW()-2</f>
+        <v>47</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="3">
+        <f>ROW()-2</f>
+        <v>48</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="3">
+        <f>ROW()-2</f>
+        <v>49</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="3">
+        <f>ROW()-2</f>
+        <v>50</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="3">
+        <f>ROW()-2</f>
+        <v>51</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="3">
+        <f>ROW()-2</f>
+        <v>52</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="3">
+        <f>ROW()-2</f>
+        <v>53</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="3">
+        <f>ROW()-2</f>
+        <v>54</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="3">
+        <f>ROW()-2</f>
+        <v>55</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="3">
+        <f>ROW()-2</f>
+        <v>56</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="3">
+        <f>ROW()-2</f>
+        <v>57</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="3">
+        <f>ROW()-2</f>
+        <v>58</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" ht="36">
+      <c r="B61" s="3">
+        <f>ROW()-2</f>
+        <v>59</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="3">
+        <f>ROW()-2</f>
+        <v>60</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="3">
+        <f>ROW()-2</f>
+        <v>61</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{14C0EF8C-738E-405E-9110-CAF92A7E19D1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E63">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B396593-E278-4A82-9CA2-BC110849857F}">
+  <dimension ref="B2:H63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="4" max="4" width="58.09765625" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="36">
+      <c r="B3" s="3">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3241</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="12" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>3225</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="72">
+      <c r="B5" s="3">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="72">
+      <c r="B6" s="3">
+        <f>ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="72">
+      <c r="B7" s="3">
+        <f>ROW()-2</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="36">
+      <c r="B8" s="3">
+        <f>ROW()-2</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="3">
+        <f>ROW()-2</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="54">
+      <c r="B10" s="3">
+        <f>ROW()-2</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3">
+        <f>ROW()-2</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="54">
+      <c r="B12" s="3">
+        <f>ROW()-2</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="54">
+      <c r="B13" s="3">
+        <f>ROW()-2</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="54">
+      <c r="B14" s="3">
+        <f>ROW()-2</f>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="36">
+      <c r="B15" s="3">
+        <f>ROW()-2</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="3">
+        <f>ROW()-2</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3">
+        <f>ROW()-2</f>
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3">
+        <f>ROW()-2</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3">
+        <f>ROW()-2</f>
+        <v>17</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3">
+        <f>ROW()-2</f>
+        <v>18</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3">
+        <f>ROW()-2</f>
+        <v>19</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3">
+        <f>ROW()-2</f>
+        <v>20</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3">
+        <f>ROW()-2</f>
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3">
+        <f>ROW()-2</f>
+        <v>22</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3">
+        <f>ROW()-2</f>
+        <v>23</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3">
+        <f>ROW()-2</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3">
+        <f>ROW()-2</f>
+        <v>25</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3">
+        <f>ROW()-2</f>
+        <v>26</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3">
+        <f>ROW()-2</f>
+        <v>27</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="3">
+        <f>ROW()-2</f>
+        <v>28</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="3">
+        <f>ROW()-2</f>
+        <v>29</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="3">
+        <f>ROW()-2</f>
+        <v>30</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="3">
+        <f>ROW()-2</f>
+        <v>31</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3">
+        <f>ROW()-2</f>
+        <v>32</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="3">
+        <f>ROW()-2</f>
+        <v>33</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="3">
+        <f>ROW()-2</f>
+        <v>34</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3">
+        <f>ROW()-2</f>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3">
+        <f>ROW()-2</f>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3">
+        <f>ROW()-2</f>
+        <v>37</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="3">
+        <f>ROW()-2</f>
+        <v>38</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="3">
+        <f>ROW()-2</f>
+        <v>39</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3">
+        <f>ROW()-2</f>
+        <v>40</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="3">
+        <f>ROW()-2</f>
+        <v>41</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="3">
+        <f>ROW()-2</f>
+        <v>42</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="3">
+        <f>ROW()-2</f>
+        <v>43</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="3">
+        <f>ROW()-2</f>
+        <v>44</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="3">
+        <f>ROW()-2</f>
+        <v>45</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="3">
+        <f>ROW()-2</f>
+        <v>46</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="3">
+        <f>ROW()-2</f>
+        <v>47</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="3">
+        <f>ROW()-2</f>
+        <v>48</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="3">
+        <f>ROW()-2</f>
+        <v>49</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="3">
+        <f>ROW()-2</f>
+        <v>50</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="3">
+        <f>ROW()-2</f>
+        <v>51</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3">
+        <f>ROW()-2</f>
+        <v>52</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="3">
+        <f>ROW()-2</f>
+        <v>53</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="3">
+        <f>ROW()-2</f>
+        <v>54</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="3">
+        <f>ROW()-2</f>
+        <v>55</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="3">
+        <f>ROW()-2</f>
+        <v>56</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="3">
+        <f>ROW()-2</f>
+        <v>57</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="3">
+        <f>ROW()-2</f>
+        <v>58</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="3">
+        <f>ROW()-2</f>
+        <v>59</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="3">
+        <f>ROW()-2</f>
+        <v>60</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="3">
+        <f>ROW()-2</f>
+        <v>61</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:G2" xr:uid="{14C0EF8C-738E-405E-9110-CAF92A7E19D1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G63">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B8240E-E47F-4D5D-9EEE-8A7C17D816DF}">
   <dimension ref="C1:J10"/>
   <sheetViews>
@@ -30835,7 +33447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220D043-C7E1-42AF-AF0B-3197BF9F81B5}">
   <dimension ref="C2:M31"/>
   <sheetViews>

--- a/quiz/betamori.xlsx
+++ b/quiz/betamori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\AC_WEB_DFN\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66142B3D-6D9A-4D87-AA55-BE32403A7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEC76B1-7674-4338-B892-FFE571782A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クイズ" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="自作問題" sheetId="4" r:id="rId4"/>
     <sheet name="ナスクイズ" sheetId="7" r:id="rId5"/>
     <sheet name="ナスクイズ2" sheetId="8" r:id="rId6"/>
-    <sheet name="タイトル戦" sheetId="6" r:id="rId7"/>
-    <sheet name="時代区分_元号" sheetId="5" r:id="rId8"/>
+    <sheet name="点数表" sheetId="9" r:id="rId7"/>
+    <sheet name="タイトル戦" sheetId="6" r:id="rId8"/>
+    <sheet name="時代区分_元号" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ナスクイズ!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ナスクイズ2!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ナスクイズ2!$B$3:$H$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="3256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="3332">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -13541,16 +13542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鳴かぬなら殺してしまえホトトギス</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ナビエストークス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -13873,86 +13864,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>船水颯斗（ふねみずはやと）、芳村玲（よしむられい）、高橋衛司（たかはしえいじ）といえば、何という球技のプロ選手でしょう</t>
-    <rPh sb="44" eb="45">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キュウギ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有名な都都逸の一つで、「恋し恋しと鳴く蝉よりも」に続く言葉は何でしょう</t>
-    <rPh sb="0" eb="2">
-      <t>ユウメイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ドドイツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>コイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>セミ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コトバ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もともとはアメリカのパズル誌に載っていたものを鍜治真起（かじまき）が日本に広めたパズルで、3×3のグループに区切られた 9×9の正方形の枠内に1〜9までの数字を入れるペンシルパズルの一つはなんでしょう</t>
-    <rPh sb="13" eb="14">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヒロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軟式テニス
-（○ソフトテニス）</t>
-    <rPh sb="0" eb="2">
-      <t>ナンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナンバープレース
-（○ナンプレ）
-（○数独）</t>
-    <rPh sb="19" eb="21">
-      <t>スウドク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13979,13 +13890,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ことわざで、過去の失敗に懲りて必要以上に用心深くなることを、「羹に懲りて何を吹く」というでしょう</t>
-    <rPh sb="36" eb="37">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>紅記えり（くれなぎえり）、薬袋カルテ (みないかるて)、名取さな（なとりさな）といえば、いずれもどのような職業をモチーフにしたVtuberでしょう</t>
     <rPh sb="53" eb="55">
       <t>ショクギョウ</t>
@@ -14050,40 +13954,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日が沈むとぬいぐるみの姿になる体質になってしまった石蕗正晴（つわぶきまさはる）が、人間の姿に戻るため、ステラスピニアの力を借りて「星のしずく」を7つ集めるというストーリーの、2007年にはアニメ化もされたゲームのタイトルはなんでしょう</t>
-    <rPh sb="15" eb="17">
-      <t>タイシツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>スガタ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>漫画「葬送のフリーレン」の4巻でフリーレンがみせた、勇者ヒンメルを失神させ、シュタルクには「エッチすぎる」と言わせた行為はなんでしょう</t>
     <rPh sb="0" eb="2">
       <t>マンガ</t>
@@ -14109,7 +13979,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「プッシュ！プッシュ！」「ガリラッパガリラッパペナーレペナーレ」「パーラダーイス」などのギャグを持つ、村本大輔（むらもとだいすけ）と共にウーマンラッシュアワーを結成している芸人は誰でしょう</t>
+    <t>「プッシュ！プッシュ！」「ガリラッパガリラッパペナーレペナーレ」「パーラダーイス」というギャグを持つ、村本大輔（むらもとだいすけ）と共にウーマンラッシュアワーを結成している芸人は誰でしょう</t>
     <rPh sb="48" eb="49">
       <t>モ</t>
     </rPh>
@@ -14127,6 +13997,1039 @@
     </rPh>
     <rPh sb="89" eb="90">
       <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>っ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>て</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>た</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>や</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴かぬなら鳴くまで待とうホトトギス</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ス</t>
+  </si>
+  <si>
+    <t>クイズ回答一覧</t>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例題で当てても2P</t>
+    <rPh sb="0" eb="2">
+      <t>レイダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンバープレース
+（△ナンプレ）
+（△数独）</t>
+    <rPh sb="19" eb="21">
+      <t>スウドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軟式テニス
+（△ソフトテニス）</t>
+    <rPh sb="0" eb="2">
+      <t>ナンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことわざで、過去の失敗に懲りて必要以上に用心深くなることを、「羹（あつもの）に懲りて何を吹く」というでしょう</t>
+    <rPh sb="42" eb="43">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラテン語で「腱（けん）」を意味する言葉が語源である、神経質になっている状態や緊張している状態を表す言葉はなんでしょう</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゴゲン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>シンケイシツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンチョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>語源</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骨と筋肉をつなぐ腱ですね
+犬ではありません。犬公方でもありません</t>
+    <rPh sb="0" eb="1">
+      <t>ホネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンニク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イヌ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>イヌクボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦国武将も漫画で覚えました</t>
+    <rPh sb="0" eb="4">
+      <t>センゴクブショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マンガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言葉遊び系は好き。7775とか575のリズムも好き</t>
+    <rPh sb="0" eb="3">
+      <t>コトバアソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今は関東にいますが、一時期関西にも住んでました。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カントウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>イチジキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンサイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解説</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△ソフトテニス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△数独△ナンプレ</t>
+    <rPh sb="1" eb="3">
+      <t>スウドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★は無視して数える</t>
+    <rPh sb="2" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間に★があるけどこれは無視して10P
+学生時代に先輩に鞄に入れられたんですよね
+結局やってないですけど</t>
+    <rPh sb="0" eb="1">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センパイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カバン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケッキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水仙の学名の由来ともされるギリシャ神話の人物で、水面に映った自分に恋をして離れることができなくなり、そのままやせ細って死んでしまった美少年は誰でしょう</t>
+    <rPh sb="0" eb="2">
+      <t>スイセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユライ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スイメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホソ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ビショウネン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦国時代の話</t>
+    <rPh sb="0" eb="2">
+      <t>センゴク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬公方（綱吉）の話</t>
+    <rPh sb="0" eb="3">
+      <t>イヌクボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツナヨシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井伊直政（徳川四天王）の話</t>
+    <rPh sb="5" eb="7">
+      <t>トクガワ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シテンノウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スが好物の徳川家や</t>
+    <rPh sb="2" eb="4">
+      <t>コウブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクガワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日が沈むとぬいぐるみの姿になる体質になってしまった石蕗正晴（つわぶきまさはる）が、人間の姿に戻るため、ステラスピニアの力を借りて「星のしずく」を7つ集めるというストーリーの、2007年にアニメ化されたゲームのタイトルはなんでしょう</t>
+    <rPh sb="15" eb="17">
+      <t>タイシツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（家康が築城）</t>
+    <rPh sb="1" eb="3">
+      <t>イエヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000年はケイエスグッドワンが、2024年はテーオードレフォンが優勝馬となった、日本三名城に数えられる城の名を冠する、オープンクラスの競走はなんでしょう。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ユウショウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サンメイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キョウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳川家康の忍耐強い性格を表現している、織田信長、豊臣秀吉のものと対比するように作られた、「鳴かぬなら」ではじまり「ホトトギス」で終わる句はなんでしょう</t>
+    <rPh sb="0" eb="2">
+      <t>トクガワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イエヤス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>オダノブナガ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>トヨトミヒデヨシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイヒ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なかぬならなく時聞こう時鳥
+なかぬなら鳴まで待よ郭公</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船水颯斗（ふねみずはやと）、芳村玲（よしむられい）、高橋衛司
+（たかはしえいじ）といえば、いずれも「何式何ス」のプロスポーツ選手でしょう</t>
+    <rPh sb="50" eb="51">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有名な都都逸（どどいつ）の一つで、「恋し恋しと鳴く蝉よりも」に続く言葉は何でしょう</t>
+    <rPh sb="0" eb="2">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ドドイツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セミ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3×3のグループに区切られた 9×9の正方形の枠内に1〜9までの数字を入れる、略称をナンプレというパズルは何でしょう。</t>
+    <rPh sb="37" eb="39">
+      <t>リャクショウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵画でも多く書かれていますね
+美少年いいですよね
+ナルキッソスとか井伊直政とかね</t>
+    <rPh sb="0" eb="2">
+      <t>カイガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ビショウネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17文字の話</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川 和宗（なかがわ たかむね）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△中川和宗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12問の問題と答えを用意しています
+答えごとに異なる点数が設定されています
+点数の最小値は2点、最大値は17点です
+流れとしては、まず次に読む問題の答えの点数を発表します。そのあとボタンリセット、問題文を読みますので早押しで答えてください。
+用意した答えに含まれていれば（※1）その答えの点数がもらえます。誤答の場合はお休み。問題が流れるか正解がでたらその答えは尾張（※2）となって解答権は全員復活します。
+試しに0点の例題を読みます。答えてもらって構いません。(※3）
+次の問題の答えは0点です。【Next】「日本で一番高い山はなんでしょう」
+下記は聞かれたら答える
+※1 別の問題の答えでもよい
+※2 尾張となった答えはもう一度答えても誤答扱い。
+※3 別の問題の答えでも認める。その場合、時短のため例題は尾張とする</t>
+    <rPh sb="2" eb="3">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ハヤオ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ゴトウ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>オワリ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="332" eb="334">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="339" eb="340">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="345" eb="347">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="348" eb="350">
+      <t>ジタン</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>レイダイ</t>
+    </rPh>
+    <rPh sb="356" eb="358">
+      <t>オワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12問の問題と答えを用意しています
+答えごとに異なる点数が設定されています
+点数の最小値は2点、最大値は17点です
+流れとしては、まず次に読む問題の答えの点数を発表します。そのあとボタンリセット、問題文を読みますので早押しで答えてください。
+用意した答えに含まれていればその答えの点数がもらえます。誤答の場合はお休み。問題が流れるか正解がでたらその答えは尾張となって解答権は全員復活します。
+試しに0点の例題を読みます。答えてもらって構いません。
+次の問題の答えは0点です。デデン「日本で一番高い山はなんでしょう」</t>
+    <rPh sb="2" eb="3">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ハヤオ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ゴトウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>オワリ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>ヤマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -14165,7 +15068,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14184,8 +15087,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -14219,12 +15134,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -14251,6 +15265,75 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -14258,6 +15341,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE6FE"/>
+      <color rgb="FFFFD3FE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -31567,7 +32656,7 @@
     </row>
     <row r="3" spans="2:5" ht="54">
       <c r="B3" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B3:B34" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -31580,7 +32669,7 @@
     </row>
     <row r="4" spans="2:5" ht="36">
       <c r="B4" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -31593,7 +32682,7 @@
     </row>
     <row r="5" spans="2:5" ht="36">
       <c r="B5" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -31606,7 +32695,7 @@
     </row>
     <row r="6" spans="2:5" ht="54">
       <c r="B6" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -31619,7 +32708,7 @@
     </row>
     <row r="7" spans="2:5" ht="54">
       <c r="B7" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -31632,7 +32721,7 @@
     </row>
     <row r="8" spans="2:5" ht="36">
       <c r="B8" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -31645,7 +32734,7 @@
     </row>
     <row r="9" spans="2:5" ht="36">
       <c r="B9" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -31658,7 +32747,7 @@
     </row>
     <row r="10" spans="2:5" ht="54">
       <c r="B10" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -31673,7 +32762,7 @@
     </row>
     <row r="11" spans="2:5" ht="54">
       <c r="B11" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -31686,7 +32775,7 @@
     </row>
     <row r="12" spans="2:5" ht="36">
       <c r="B12" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -31699,7 +32788,7 @@
     </row>
     <row r="13" spans="2:5" ht="54">
       <c r="B13" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -31712,7 +32801,7 @@
     </row>
     <row r="14" spans="2:5" ht="54">
       <c r="B14" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -31725,7 +32814,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -31738,7 +32827,7 @@
     </row>
     <row r="16" spans="2:5" ht="36">
       <c r="B16" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -31751,7 +32840,7 @@
     </row>
     <row r="17" spans="2:5" ht="36">
       <c r="B17" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -31764,7 +32853,7 @@
     </row>
     <row r="18" spans="2:5" ht="36">
       <c r="B18" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -31777,7 +32866,7 @@
     </row>
     <row r="19" spans="2:5" ht="36">
       <c r="B19" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -31790,7 +32879,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="5"/>
@@ -31801,7 +32890,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="5"/>
@@ -31812,7 +32901,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="5"/>
@@ -31823,7 +32912,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="5"/>
@@ -31834,7 +32923,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="5"/>
@@ -31845,7 +32934,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="5"/>
@@ -31856,7 +32945,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="5"/>
@@ -31867,7 +32956,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="5"/>
@@ -31878,7 +32967,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="5"/>
@@ -31889,7 +32978,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="5"/>
@@ -31900,7 +32989,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="5"/>
@@ -31911,7 +33000,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="5"/>
@@ -31922,7 +33011,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="5"/>
@@ -31933,7 +33022,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="5"/>
@@ -31944,7 +33033,7 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="5"/>
@@ -31955,7 +33044,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B35:B63" si="1">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="C35" s="5"/>
@@ -31966,7 +33055,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36" s="5"/>
@@ -31977,7 +33066,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" s="5"/>
@@ -31988,7 +33077,7 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="5"/>
@@ -31999,7 +33088,7 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C39" s="5"/>
@@ -32010,7 +33099,7 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" s="5"/>
@@ -32021,7 +33110,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" s="5"/>
@@ -32032,7 +33121,7 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C42" s="5"/>
@@ -32043,7 +33132,7 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C43" s="5"/>
@@ -32056,7 +33145,7 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C44" s="5"/>
@@ -32067,7 +33156,7 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C45" s="5"/>
@@ -32078,7 +33167,7 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C46" s="5"/>
@@ -32089,7 +33178,7 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C47" s="5"/>
@@ -32100,7 +33189,7 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C48" s="5"/>
@@ -32111,7 +33200,7 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C49" s="5"/>
@@ -32122,7 +33211,7 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C50" s="5"/>
@@ -32133,7 +33222,7 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C51" s="5"/>
@@ -32146,7 +33235,7 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C52" s="5"/>
@@ -32157,7 +33246,7 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C53" s="5"/>
@@ -32168,7 +33257,7 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C54" s="5"/>
@@ -32179,7 +33268,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" s="5"/>
@@ -32190,7 +33279,7 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" s="5"/>
@@ -32201,7 +33290,7 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57" s="5"/>
@@ -32214,7 +33303,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58" s="5"/>
@@ -32227,7 +33316,7 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" s="5"/>
@@ -32238,7 +33327,7 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C60" s="5"/>
@@ -32249,7 +33338,7 @@
     </row>
     <row r="61" spans="2:5" ht="36">
       <c r="B61" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -32264,7 +33353,7 @@
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C62" s="5"/>
@@ -32273,7 +33362,7 @@
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="3">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" s="5"/>
@@ -32293,760 +33382,798 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B396593-E278-4A82-9CA2-BC110849857F}">
-  <dimension ref="B2:H63"/>
+  <dimension ref="B2:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="58.09765625" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.296875" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" ht="180">
+      <c r="C2" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3239</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3223</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3302</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="36">
+      <c r="B4" s="3">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="36">
-      <c r="B3" s="3">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3241</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3197</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3224</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12</v>
-      </c>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="3">
-        <f>ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="12" t="s">
-        <v>3190</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>3225</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11</v>
-      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="72">
       <c r="B5" s="3">
-        <f>ROW()-2</f>
-        <v>3</v>
+        <f>ROW()-3</f>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3253</v>
+        <v>3318</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="72">
+      <c r="H5" s="8" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="54">
       <c r="B6" s="3">
-        <f>ROW()-2</f>
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="54">
+      <c r="B7" s="3">
+        <f>ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3255</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3229</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="D7" s="5" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="G7" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="72">
-      <c r="B7" s="3">
-        <f>ROW()-2</f>
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3242</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3244</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8</v>
+      <c r="H7" s="13" t="s">
+        <v>3328</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="36">
       <c r="B8" s="3">
-        <f>ROW()-2</f>
+        <f>ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="54">
+      <c r="B9" s="3">
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>3240</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>3243</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="3">
-        <f>ROW()-2</f>
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1" t="s">
-        <v>1091</v>
+      <c r="D9" s="37" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>3297</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3245</v>
+        <v>3230</v>
       </c>
       <c r="G9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="54">
       <c r="B10" s="3">
-        <f>ROW()-2</f>
+        <f>ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="54">
+      <c r="B11" s="3">
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>3254</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="D11" s="5" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="3">
-        <f>ROW()-2</f>
+      <c r="H11" s="13" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="36">
+      <c r="B12" s="3">
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1" t="s">
-        <v>3210</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="54">
-      <c r="B12" s="3">
-        <f>ROW()-2</f>
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>3249</v>
+        <v>3324</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3250</v>
+        <v>3196</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3251</v>
+        <v>3223</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>3305</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="54">
       <c r="B13" s="3">
-        <f>ROW()-2</f>
+        <f>ROW()-3</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>3171</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>3246</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>3147</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
+      <c r="H13" t="s">
+        <v>3306</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="54">
       <c r="B14" s="3">
-        <f>ROW()-2</f>
+        <f>ROW()-3</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="54">
+      <c r="B15" s="3">
+        <f>ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>3252</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>3247</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="3">
-        <f>ROW()-2</f>
-        <v>13</v>
-      </c>
-      <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>3248</v>
+        <v>3321</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3188</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>3247</v>
-      </c>
+        <v>3289</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>3322</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="3">
-        <f>ROW()-2</f>
-        <v>14</v>
+        <f>ROW()-3</f>
+        <v>13</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>3209</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3236</v>
+      </c>
       <c r="G16" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="54">
       <c r="B17" s="3">
-        <f>ROW()-2</f>
+        <f>ROW()-3</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="54">
+      <c r="B18" s="3">
+        <f>ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1" t="s">
-        <v>3222</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3">
-        <f>ROW()-2</f>
-        <v>16</v>
-      </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>3245</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>3192</v>
+        <v>3237</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3227</v>
+        <v>3241</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="3">
-        <f>ROW()-2</f>
-        <v>17</v>
+        <f>ROW()-3</f>
+        <v>16</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="E19" s="1" t="s">
-        <v>3193</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>3228</v>
-      </c>
+        <v>3221</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="3">
-        <f>ROW()-2</f>
-        <v>18</v>
+        <f>ROW()-3</f>
+        <v>17</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
       <c r="E20" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="G20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="3">
-        <f>ROW()-2</f>
-        <v>19</v>
+        <f>ROW()-3</f>
+        <v>18</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3224</v>
+        <v>3227</v>
       </c>
       <c r="G21" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="3">
-        <f>ROW()-2</f>
-        <v>20</v>
+        <f>ROW()-3</f>
+        <v>19</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
       <c r="E22" s="1" t="s">
-        <v>3187</v>
+        <v>3193</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="3">
-        <f>ROW()-2</f>
-        <v>21</v>
+        <f>ROW()-3</f>
+        <v>20</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="E23" s="1" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="G23" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="3">
-        <f>ROW()-2</f>
-        <v>22</v>
+        <f>ROW()-3</f>
+        <v>21</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="G24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="3">
-        <f>ROW()-2</f>
-        <v>23</v>
+        <f>ROW()-3</f>
+        <v>22</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="1" t="s">
-        <v>3213</v>
+        <v>3195</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3233</v>
+        <v>3223</v>
       </c>
       <c r="G25" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="3">
-        <f>ROW()-2</f>
-        <v>24</v>
+        <f>ROW()-3</f>
+        <v>23</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>3191</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="E26" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3231</v>
+      </c>
       <c r="G26" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="3">
-        <f>ROW()-2</f>
-        <v>25</v>
+        <f>ROW()-3</f>
+        <v>24</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="6" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="3">
-        <f>ROW()-2</f>
-        <v>26</v>
+        <f>ROW()-3</f>
+        <v>25</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="1" t="s">
-        <v>3201</v>
+        <v>3190</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="3">
-        <f>ROW()-2</f>
-        <v>27</v>
+        <f>ROW()-3</f>
+        <v>26</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="3">
-        <f>ROW()-2</f>
-        <v>28</v>
+        <f>ROW()-3</f>
+        <v>27</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
       <c r="E30" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="3">
-        <f>ROW()-2</f>
-        <v>29</v>
+        <f>ROW()-3</f>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
       <c r="E31" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="3">
-        <f>ROW()-2</f>
-        <v>30</v>
+        <f>ROW()-3</f>
+        <v>29</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5"/>
       <c r="E32" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="3">
-        <f>ROW()-2</f>
-        <v>31</v>
+        <f>ROW()-3</f>
+        <v>30</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
       <c r="E33" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="3">
-        <f>ROW()-2</f>
-        <v>32</v>
+        <f>ROW()-3</f>
+        <v>31</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5"/>
       <c r="E34" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="3">
-        <f>ROW()-2</f>
-        <v>33</v>
+        <f>ROW()-3</f>
+        <v>32</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
       <c r="E35" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="3">
-        <f>ROW()-2</f>
-        <v>34</v>
+        <f>ROW()-3</f>
+        <v>33</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5"/>
       <c r="E36" s="1" t="s">
-        <v>3212</v>
+        <v>3206</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="3">
-        <f>ROW()-2</f>
-        <v>35</v>
+        <f>ROW()-3</f>
+        <v>34</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5"/>
       <c r="E37" s="1" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="3">
-        <f>ROW()-2</f>
-        <v>36</v>
+        <f>ROW()-3</f>
+        <v>35</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5"/>
       <c r="E38" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="3">
-        <f>ROW()-2</f>
-        <v>37</v>
+        <f>ROW()-3</f>
+        <v>36</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
       <c r="E39" s="1" t="s">
-        <v>3215</v>
+        <v>3210</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="3">
-        <f>ROW()-2</f>
-        <v>38</v>
+        <f>ROW()-3</f>
+        <v>37</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
       <c r="E40" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="3">
-        <f>ROW()-2</f>
-        <v>39</v>
+        <f>ROW()-3</f>
+        <v>38</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
       <c r="E41" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="3">
-        <f>ROW()-2</f>
-        <v>40</v>
+        <f>ROW()-3</f>
+        <v>39</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5"/>
       <c r="E42" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="3">
-        <f>ROW()-2</f>
-        <v>41</v>
+        <f>ROW()-3</f>
+        <v>40</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
       <c r="E43" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="3">
-        <f>ROW()-2</f>
-        <v>42</v>
+        <f>ROW()-3</f>
+        <v>41</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5"/>
       <c r="E44" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="3">
-        <f>ROW()-2</f>
-        <v>43</v>
+        <f>ROW()-3</f>
+        <v>42</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5"/>
       <c r="E45" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="3">
-        <f>ROW()-2</f>
-        <v>44</v>
+        <f>ROW()-3</f>
+        <v>43</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5"/>
       <c r="E46" s="1" t="s">
-        <v>3236</v>
+        <v>3219</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="3">
-        <f>ROW()-2</f>
-        <v>45</v>
+        <f>ROW()-3</f>
+        <v>44</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>3220</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="3">
-        <f>ROW()-2</f>
-        <v>46</v>
+        <f>ROW()-3</f>
+        <v>45</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5"/>
@@ -33056,8 +34183,8 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="3">
-        <f>ROW()-2</f>
-        <v>47</v>
+        <f>ROW()-3</f>
+        <v>46</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
@@ -33067,8 +34194,8 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="3">
-        <f>ROW()-2</f>
-        <v>48</v>
+        <f>ROW()-3</f>
+        <v>47</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5"/>
@@ -33078,8 +34205,8 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="3">
-        <f>ROW()-2</f>
-        <v>49</v>
+        <f>ROW()-3</f>
+        <v>48</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5"/>
@@ -33089,8 +34216,8 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3">
-        <f>ROW()-2</f>
-        <v>50</v>
+        <f>ROW()-3</f>
+        <v>49</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5"/>
@@ -33100,8 +34227,8 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="3">
-        <f>ROW()-2</f>
-        <v>51</v>
+        <f>ROW()-3</f>
+        <v>50</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="5"/>
@@ -33111,8 +34238,8 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="3">
-        <f>ROW()-2</f>
-        <v>52</v>
+        <f>ROW()-3</f>
+        <v>51</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="5"/>
@@ -33122,8 +34249,8 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="3">
-        <f>ROW()-2</f>
-        <v>53</v>
+        <f>ROW()-3</f>
+        <v>52</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5"/>
@@ -33133,8 +34260,8 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="3">
-        <f>ROW()-2</f>
-        <v>54</v>
+        <f>ROW()-3</f>
+        <v>53</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5"/>
@@ -33144,8 +34271,8 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="3">
-        <f>ROW()-2</f>
-        <v>55</v>
+        <f>ROW()-3</f>
+        <v>54</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5"/>
@@ -33155,8 +34282,8 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="3">
-        <f>ROW()-2</f>
-        <v>56</v>
+        <f>ROW()-3</f>
+        <v>55</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5"/>
@@ -33166,8 +34293,8 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="3">
-        <f>ROW()-2</f>
-        <v>57</v>
+        <f>ROW()-3</f>
+        <v>56</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
@@ -33177,8 +34304,8 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
-        <f>ROW()-2</f>
-        <v>58</v>
+        <f>ROW()-3</f>
+        <v>57</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5"/>
@@ -33188,8 +34315,8 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
-        <f>ROW()-2</f>
-        <v>59</v>
+        <f>ROW()-3</f>
+        <v>58</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
@@ -33199,8 +34326,8 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
-        <f>ROW()-2</f>
-        <v>60</v>
+        <f>ROW()-3</f>
+        <v>59</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5"/>
@@ -33210,8 +34337,8 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3">
-        <f>ROW()-2</f>
-        <v>61</v>
+        <f>ROW()-3</f>
+        <v>60</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
@@ -33219,10 +34346,21 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="3">
+        <f>ROW()-3</f>
+        <v>61</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:G2" xr:uid="{14C0EF8C-738E-405E-9110-CAF92A7E19D1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G63">
-      <sortCondition ref="C2"/>
+  <autoFilter ref="B3:H3" xr:uid="{4B396593-E278-4A82-9CA2-BC110849857F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H64">
+      <sortCondition ref="C3"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -33231,6 +34369,637 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F8117F-FC71-4B2C-9E6F-7B7BDBB12DA5}">
+  <dimension ref="B2:X18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="3.3984375" customWidth="1"/>
+    <col min="11" max="11" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="3.3984375" customWidth="1"/>
+    <col min="22" max="22" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="74.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22">
+      <c r="E2" s="32" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3316</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>3293</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="18" customHeight="1">
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3" s="15">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>6</v>
+      </c>
+      <c r="K3" s="15">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15">
+        <v>8</v>
+      </c>
+      <c r="M3" s="15">
+        <v>9</v>
+      </c>
+      <c r="N3" s="15">
+        <v>10</v>
+      </c>
+      <c r="O3" s="15">
+        <v>11</v>
+      </c>
+      <c r="P3" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>13</v>
+      </c>
+      <c r="R3" s="15">
+        <v>14</v>
+      </c>
+      <c r="S3" s="15">
+        <v>15</v>
+      </c>
+      <c r="T3" s="15">
+        <v>16</v>
+      </c>
+      <c r="U3" s="16">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="18" customHeight="1">
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>3249</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="2:22" ht="18" customHeight="1">
+      <c r="C5" s="24">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>3248</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>3256</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>3259</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>3258</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>3260</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>3254</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
+      <c r="V5" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18" customHeight="1">
+      <c r="C6" s="24">
+        <v>6</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>3260</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>3250</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="35" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18" customHeight="1">
+      <c r="C7" s="24">
+        <v>9</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>3270</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>3273</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>3257</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>3250</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="23"/>
+      <c r="V7" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18" customHeight="1">
+      <c r="C8" s="24">
+        <v>4</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>3253</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="35" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18" customHeight="1">
+      <c r="C9" s="24">
+        <v>8</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>3255</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>3253</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19"/>
+      <c r="V9" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18" customHeight="1">
+      <c r="C10" s="24">
+        <v>7</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>3264</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>3265</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>3250</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="V10" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="18" customHeight="1">
+      <c r="C11" s="24">
+        <v>5</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>3260</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>3250</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="35" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18" customHeight="1">
+      <c r="C12" s="24">
+        <v>12</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>3277</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>3266</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>3269</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>3278</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>3279</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>3280</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>3269</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>3250</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="35" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18" customHeight="1">
+      <c r="C13" s="24">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>3282</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>3283</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>3284</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>3250</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>3264</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>3253</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>3285</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>3250</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="35" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="18" customHeight="1">
+      <c r="C14" s="24">
+        <v>2</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="33" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="18" customHeight="1">
+      <c r="C15" s="24">
+        <v>17</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>3272</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>3285</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>3249</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>3286</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>3249</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>3287</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>3284</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>3276</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>3287</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>3287</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>3288</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="24" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C4:C15)</f>
+        <v>94</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="18" spans="24:24" ht="270">
+      <c r="X18" s="36" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B8240E-E47F-4D5D-9EEE-8A7C17D816DF}">
   <dimension ref="C1:J10"/>
   <sheetViews>
@@ -33447,7 +35216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220D043-C7E1-42AF-AF0B-3197BF9F81B5}">
   <dimension ref="C2:M31"/>
   <sheetViews>

--- a/quiz/betamori.xlsx
+++ b/quiz/betamori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\AC_WEB_DFN\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEC76B1-7674-4338-B892-FFE571782A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B54C87-4105-4FFD-9ADF-8AE92AFCB868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14292,26 +14292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>骨と筋肉をつなぐ腱ですね
-犬ではありません。犬公方でもありません</t>
-    <rPh sb="0" eb="1">
-      <t>ホネ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンニク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イヌ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>イヌクボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戦国武将も漫画で覚えました</t>
     <rPh sb="0" eb="4">
       <t>センゴクブショウ</t>
@@ -14321,22 +14301,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>言葉遊び系は好き。7775とか575のリズムも好き</t>
-    <rPh sb="0" eb="3">
-      <t>コトバアソ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -14561,46 +14525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2000年はケイエスグッドワンが、2024年はテーオードレフォンが優勝馬となった、日本三名城に数えられる城の名を冠する、オープンクラスの競走はなんでしょう。</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ユウショウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>サンメイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>カゾ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キョウソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>徳川家康の忍耐強い性格を表現している、織田信長、豊臣秀吉のものと対比するように作られた、「鳴かぬなら」ではじまり「ホトトギス」で終わる句はなんでしょう</t>
     <rPh sb="0" eb="2">
       <t>トクガワ</t>
@@ -14659,40 +14583,6 @@
     </rPh>
     <rPh sb="62" eb="64">
       <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有名な都都逸（どどいつ）の一つで、「恋し恋しと鳴く蝉よりも」に続く言葉は何でしょう</t>
-    <rPh sb="0" eb="2">
-      <t>ユウメイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ドドイツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>セミ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コトバ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ナン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15030,6 +14920,110 @@
     </rPh>
     <rPh sb="248" eb="249">
       <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有名な都都逸（どどいつ）で、「戀（こい）という字を分析すれば」に続くのは「愛し愛しという心」ですが、「恋し恋しと鳴く蝉よりも」に続く言葉は何でしょう</t>
+    <rPh sb="0" eb="2">
+      <t>ユウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ドドイツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>セミ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7775の75を答えていただく問題でした。12pt</t>
+    <rPh sb="8" eb="9">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>骨と筋肉をつなぐ腱ですね
+犬公方の犬ではありません</t>
+    <rPh sb="0" eb="1">
+      <t>ホネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンニク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イヌクボウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000年にはケイエスグッドワンが、2024年にはテーオードレフォンが優勝馬となった、日本三名城に数えられる城の名を冠する、オープンクラスの競走はなんでしょう。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ユウショウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サンメイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>キョウソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15238,7 +15232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -15264,7 +15258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15272,9 +15265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15320,7 +15310,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -15672,9 +15662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -33401,7 +33389,7 @@
         <v>3296</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3331</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -33423,13 +33411,13 @@
       <c r="G3" s="2" t="s">
         <v>3302</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>3307</v>
+      <c r="H3" s="32" t="s">
+        <v>3305</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="36">
       <c r="B4" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" ref="B4:B35" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -33451,14 +33439,14 @@
     </row>
     <row r="5" spans="2:8" ht="72">
       <c r="B5" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3197</v>
@@ -33470,19 +33458,19 @@
         <v>10</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="54">
       <c r="B6" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1091</v>
@@ -33494,12 +33482,12 @@
         <v>6</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>3326</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="54">
       <c r="B7" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="3">
@@ -33517,13 +33505,13 @@
       <c r="G7" s="1">
         <v>9</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>3328</v>
+      <c r="H7" s="6" t="s">
+        <v>3324</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="36">
       <c r="B8" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="3">
@@ -33542,19 +33530,19 @@
         <v>4</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>3303</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="54">
       <c r="B9" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>3325</v>
+      <c r="D9" s="35" t="s">
+        <v>3321</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3297</v>
@@ -33568,14 +33556,14 @@
     </row>
     <row r="10" spans="2:8" ht="54">
       <c r="B10" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3298</v>
@@ -33589,7 +33577,7 @@
     </row>
     <row r="11" spans="2:8" ht="54">
       <c r="B11" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="3">
@@ -33607,20 +33595,20 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="36">
+      <c r="H11" s="6" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="54">
       <c r="B12" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3324</v>
+        <v>3328</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>3196</v>
@@ -33631,22 +33619,22 @@
       <c r="G12" s="1">
         <v>12</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>3305</v>
+      <c r="H12" s="6" t="s">
+        <v>3329</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="54">
       <c r="B13" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>3320</v>
-      </c>
-      <c r="E13" s="38" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>3189</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -33656,12 +33644,12 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="54">
       <c r="B14" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="3">
@@ -33682,14 +33670,14 @@
     </row>
     <row r="15" spans="2:8" ht="54">
       <c r="B15" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>3289</v>
@@ -33699,12 +33687,12 @@
         <v>17</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="3"/>
@@ -33721,7 +33709,7 @@
     </row>
     <row r="17" spans="2:7" ht="54">
       <c r="B17" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
@@ -33740,7 +33728,7 @@
     </row>
     <row r="18" spans="2:7" ht="54">
       <c r="B18" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="3"/>
@@ -33759,7 +33747,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
@@ -33774,7 +33762,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
@@ -33791,7 +33779,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C21" s="3"/>
@@ -33808,7 +33796,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" s="3"/>
@@ -33825,7 +33813,7 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="3"/>
@@ -33842,7 +33830,7 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" s="3"/>
@@ -33859,7 +33847,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C25" s="3"/>
@@ -33876,7 +33864,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
@@ -33893,7 +33881,7 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="3"/>
@@ -33910,7 +33898,7 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C28" s="3"/>
@@ -33925,7 +33913,7 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C29" s="3"/>
@@ -33938,7 +33926,7 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C30" s="3"/>
@@ -33951,7 +33939,7 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C31" s="3"/>
@@ -33964,7 +33952,7 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C32" s="3"/>
@@ -33977,7 +33965,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C33" s="3"/>
@@ -33990,7 +33978,7 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C34" s="3"/>
@@ -34003,7 +33991,7 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C35" s="3"/>
@@ -34016,7 +34004,7 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" ref="B36:B64" si="1">ROW()-3</f>
         <v>33</v>
       </c>
       <c r="C36" s="3"/>
@@ -34029,7 +34017,7 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C37" s="3"/>
@@ -34042,7 +34030,7 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C38" s="3"/>
@@ -34055,7 +34043,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C39" s="3"/>
@@ -34068,7 +34056,7 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C40" s="3"/>
@@ -34081,7 +34069,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C41" s="3"/>
@@ -34094,7 +34082,7 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C42" s="3"/>
@@ -34107,7 +34095,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C43" s="3"/>
@@ -34120,7 +34108,7 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C44" s="3"/>
@@ -34133,7 +34121,7 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C45" s="3"/>
@@ -34146,7 +34134,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C46" s="3"/>
@@ -34159,7 +34147,7 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C47" s="3"/>
@@ -34172,7 +34160,7 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C48" s="3"/>
@@ -34183,7 +34171,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C49" s="3"/>
@@ -34194,7 +34182,7 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C50" s="3"/>
@@ -34205,7 +34193,7 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C51" s="3"/>
@@ -34216,7 +34204,7 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C52" s="3"/>
@@ -34227,7 +34215,7 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C53" s="3"/>
@@ -34238,7 +34226,7 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C54" s="3"/>
@@ -34249,7 +34237,7 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C55" s="3"/>
@@ -34260,7 +34248,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C56" s="3"/>
@@ -34271,7 +34259,7 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C57" s="3"/>
@@ -34282,7 +34270,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C58" s="3"/>
@@ -34293,7 +34281,7 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C59" s="3"/>
@@ -34304,7 +34292,7 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C60" s="3"/>
@@ -34315,7 +34303,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C61" s="3"/>
@@ -34326,7 +34314,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C62" s="3"/>
@@ -34337,7 +34325,7 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C63" s="3"/>
@@ -34348,7 +34336,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="3">
-        <f>ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C64" s="3"/>
@@ -34389,13 +34377,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>3292</v>
       </c>
       <c r="F2" t="s">
-        <v>3316</v>
-      </c>
-      <c r="K2" s="32" t="s">
+        <v>3314</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>3293</v>
       </c>
       <c r="L2" t="s">
@@ -34403,594 +34391,594 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="18" customHeight="1">
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>4</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>5</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>6</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>7</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>8</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>9</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>10</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>11</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <v>12</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>13</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="14">
         <v>14</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <v>15</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="14">
         <v>16</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="15">
         <v>17</v>
       </c>
       <c r="V3" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="18" customHeight="1">
+      <c r="C4" s="22">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>3249</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>3250</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="2:22" ht="18" customHeight="1">
+      <c r="C5" s="22">
+        <v>10</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>3248</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>3256</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>3258</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>3259</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>3258</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>3260</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>3254</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>3250</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+      <c r="V5" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18" customHeight="1">
+      <c r="C6" s="22">
+        <v>6</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>3260</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>3250</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="33" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18" customHeight="1">
+      <c r="C7" s="22">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>3270</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>3273</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>3257</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18" customHeight="1">
+      <c r="C8" s="22">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>3253</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>3250</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="33" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18" customHeight="1">
+      <c r="C9" s="22">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>3255</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>3253</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>3250</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18" customHeight="1">
+      <c r="C10" s="22">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>3264</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>3265</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>3250</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+      <c r="V10" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="18" customHeight="1">
+      <c r="C11" s="22">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>3260</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="33" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18" customHeight="1">
+      <c r="C12" s="22">
+        <v>12</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>3277</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>3266</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>3269</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>3278</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>3279</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>3280</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>3269</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="33" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18" customHeight="1">
+      <c r="C13" s="22">
+        <v>11</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>3282</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>3283</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>3284</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>3250</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>3264</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>3253</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>3285</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="33" t="s">
         <v>3317</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="18" customHeight="1">
-      <c r="C4" s="24">
-        <v>3</v>
-      </c>
-      <c r="D4" s="24" t="s">
+    <row r="14" spans="2:22" ht="18" customHeight="1">
+      <c r="C14" s="22">
+        <v>2</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>3290</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>3248</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F14" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="31" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="18" customHeight="1">
+      <c r="C15" s="22">
+        <v>17</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>3272</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>3285</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>3249</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="M15" s="20" t="s">
+        <v>3286</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>3249</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>3287</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>3284</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>3276</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>3287</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>3287</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>3288</v>
+      </c>
+      <c r="U15" s="29" t="s">
         <v>3250</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="2:22" ht="18" customHeight="1">
-      <c r="C5" s="24">
-        <v>10</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>3248</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>3256</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>3258</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>3259</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>3258</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>3260</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>3254</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>3250</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" t="s">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="18" customHeight="1">
-      <c r="C6" s="24">
-        <v>6</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>3266</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>3263</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>3260</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>3267</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>3250</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="35" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="18" customHeight="1">
-      <c r="C7" s="24">
-        <v>9</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>3268</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>3269</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>3270</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>3271</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>3272</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>3273</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>3257</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>3250</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="23"/>
-      <c r="V7" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="18" customHeight="1">
-      <c r="C8" s="24">
-        <v>4</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>3253</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>3252</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>3250</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="35" t="s">
-        <v>3314</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="18" customHeight="1">
-      <c r="C9" s="24">
-        <v>8</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>3251</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>3252</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>3253</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>3254</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>3255</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>3253</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>3250</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" t="s">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="18" customHeight="1">
-      <c r="C10" s="24">
-        <v>7</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>3251</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>3262</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>3250</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="21"/>
-      <c r="V10" t="s">
-        <v>3308</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="18" customHeight="1">
-      <c r="C11" s="24">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>3274</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>3263</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>3260</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>3250</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="35" t="s">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="18" customHeight="1">
-      <c r="C12" s="24">
-        <v>12</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>3268</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>3275</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>3276</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>3277</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>3266</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>3269</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>3278</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>3279</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>3280</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>3269</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>3250</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="35" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="18" customHeight="1">
-      <c r="C13" s="24">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>3282</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>3283</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>3261</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>3284</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>3250</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>3264</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>3253</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>3285</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>3250</v>
-      </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="35" t="s">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="18" customHeight="1">
-      <c r="C14" s="24">
-        <v>2</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>3250</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="33" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="18" customHeight="1">
-      <c r="C15" s="24">
-        <v>17</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>3268</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>3275</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>3248</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>3272</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>3248</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>3285</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>3249</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>3286</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>3249</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>3287</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>3284</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>3276</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>3287</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>3287</v>
-      </c>
-      <c r="T15" s="22" t="s">
-        <v>3288</v>
-      </c>
-      <c r="U15" s="31" t="s">
-        <v>3250</v>
-      </c>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>3291</v>
       </c>
       <c r="C16">
         <f>SUM(C4:C15)</f>
         <v>94</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>3290</v>
       </c>
     </row>
     <row r="18" spans="24:24" ht="270">
-      <c r="X18" s="36" t="s">
-        <v>3330</v>
+      <c r="X18" s="34" t="s">
+        <v>3326</v>
       </c>
     </row>
   </sheetData>

--- a/quiz/betamori.xlsx
+++ b/quiz/betamori.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\AC_WEB_DFN\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\github\AC_WEB_DFN\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B54C87-4105-4FFD-9ADF-8AE92AFCB868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE78D0A-BA39-4AE9-B24F-2AB7F47CCC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クイズ" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ナスクイズ2!$B$3:$H$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="3332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="3331">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -14206,16 +14207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例題で当てても2P</t>
-    <rPh sb="0" eb="2">
-      <t>レイダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -14244,40 +14235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラテン語で「腱（けん）」を意味する言葉が語源である、神経質になっている状態や緊張している状態を表す言葉はなんでしょう</t>
-    <rPh sb="3" eb="4">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コトバ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゴゲン</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>シンケイシツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キンチョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>コトバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>語源</t>
     <rPh sb="0" eb="2">
       <t>ゴゲン</t>
@@ -14382,52 +14339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水仙の学名の由来ともされるギリシャ神話の人物で、水面に映った自分に恋をして離れることができなくなり、そのままやせ細って死んでしまった美少年は誰でしょう</t>
-    <rPh sb="0" eb="2">
-      <t>スイセン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガクメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ユライ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シンワ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジンブツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>スイメン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>コイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ホソ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>ビショウネン</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ダレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戦国時代の話</t>
     <rPh sb="0" eb="2">
       <t>センゴク</t>
@@ -14484,40 +14395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日が沈むとぬいぐるみの姿になる体質になってしまった石蕗正晴（つわぶきまさはる）が、人間の姿に戻るため、ステラスピニアの力を借りて「星のしずく」を7つ集めるというストーリーの、2007年にアニメ化されたゲームのタイトルはなんでしょう</t>
-    <rPh sb="15" eb="17">
-      <t>タイシツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>スガタ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ホシ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（家康が築城）</t>
     <rPh sb="1" eb="3">
       <t>イエヤス</t>
@@ -14562,11 +14439,6 @@
     <rPh sb="67" eb="68">
       <t>ク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なかぬならなく時聞こう時鳥
-なかぬなら鳴まで待よ郭公</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -14791,139 +14663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12問の問題と答えを用意しています
-答えごとに異なる点数が設定されています
-点数の最小値は2点、最大値は17点です
-流れとしては、まず次に読む問題の答えの点数を発表します。そのあとボタンリセット、問題文を読みますので早押しで答えてください。
-用意した答えに含まれていればその答えの点数がもらえます。誤答の場合はお休み。問題が流れるか正解がでたらその答えは尾張となって解答権は全員復活します。
-試しに0点の例題を読みます。答えてもらって構いません。
-次の問題の答えは0点です。デデン「日本で一番高い山はなんでしょう」</t>
-    <rPh sb="2" eb="3">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>サイショウチ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ハヤオ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ゴトウ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>オワリ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="233" eb="234">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="241" eb="243">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="248" eb="249">
-      <t>ヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>有名な都都逸（どどいつ）で、「戀（こい）という字を分析すれば」に続くのは「愛し愛しという心」ですが、「恋し恋しと鳴く蝉よりも」に続く言葉は何でしょう</t>
     <rPh sb="0" eb="2">
       <t>ユウメイ</t>
@@ -15024,6 +14763,213 @@
     </rPh>
     <rPh sb="70" eb="72">
       <t>キョウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水仙の学名の由来ともされるギリシャ神話の美少年で、水面に映った自分に恋をして離れることができなくなり、そのままやせ細って死んでしまった人物は誰でしょう</t>
+    <rPh sb="0" eb="2">
+      <t>スイセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユライ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンワ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ビショウネン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スイメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ホソ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『世界で一番星に近い街』、星ケ丘（ほしがおか）を舞台に、ぬいぐるみの姿になってしまった石蕗正晴（つわぶきまさはる）が、人間の姿に戻るため、ステラスピニアの力を借りて７つの「星のしずく」を集めるというストーリーの、2007年にアニメ化されたゲームのタイトルはなんでしょう</t>
+    <rPh sb="24" eb="26">
+      <t>ブタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タイシツ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○なかぬならなく時聞こう時鳥
+○なかぬなら鳴まで待よ郭公</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12問の問題と答えを用意しています
+答えごとに異なる点数が設定されています
+点数の最小値は2点、最大値は17点です
+問題はリストの順に読まれますが、答えはリストのどこから答えても正解となります。ただし、既に正解された答え、スルーとなった答えは誤答扱いとなります。誤答ペナルティは、スルーになるか正解がでるまでお休みです。</t>
+    <rPh sb="2" eb="3">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ゴトウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ゴトウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラテン語で「腱（けん）」や「神経」を意味する言葉が語源である、人間が神経質になっている状態や緊張している状態を表す言葉はなんでしょう</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゴゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>シンケイシツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キンチョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コトバ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15062,7 +15008,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15090,6 +15036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15232,7 +15184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -15267,27 +15219,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15310,19 +15241,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15390,6 +15352,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3457575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E53CDF-4D35-5994-8551-D272B5A21EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="3924300"/>
+          <a:ext cx="7715250" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -15664,12 +15692,12 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="88.69921875" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" customWidth="1"/>
-    <col min="4" max="4" width="59.796875" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="88.75" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="59.75" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15721,7 +15749,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="54">
+    <row r="4" spans="1:5" ht="56.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15766,7 +15794,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="54">
+    <row r="7" spans="1:5" ht="56.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -15907,7 +15935,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="36">
+    <row r="16" spans="1:5" ht="37.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -16063,7 +16091,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="72">
+    <row r="26" spans="1:5" ht="75">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -16155,7 +16183,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="54">
+    <row r="32" spans="1:5" ht="56.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -16510,7 +16538,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="36">
+    <row r="55" spans="1:5" ht="37.5">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -16527,7 +16555,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="36">
+    <row r="56" spans="1:5" ht="37.5">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -16608,7 +16636,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="54">
+    <row r="61" spans="1:5" ht="56.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -16625,7 +16653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="54">
+    <row r="62" spans="1:5" ht="56.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -16655,7 +16683,7 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="54">
+    <row r="64" spans="1:5" ht="56.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -16796,7 +16824,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="72">
+    <row r="73" spans="1:5" ht="75">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -17015,7 +17043,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="54">
+    <row r="87" spans="1:6" ht="56.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -17233,7 +17261,7 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" ht="72">
+    <row r="101" spans="1:5" ht="75">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -17265,7 +17293,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" ht="36">
+    <row r="103" spans="1:5" ht="37.5">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -17297,7 +17325,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="36">
+    <row r="105" spans="1:5" ht="37.5">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -17329,7 +17357,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" ht="54">
+    <row r="107" spans="1:5" ht="56.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -17361,7 +17389,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" ht="72">
+    <row r="109" spans="1:5" ht="75">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -17408,7 +17436,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" ht="54">
+    <row r="112" spans="1:5" ht="56.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -17611,7 +17639,7 @@
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" ht="54">
+    <row r="125" spans="1:5" ht="56.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -17763,7 +17791,7 @@
       </c>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" ht="36">
+    <row r="135" spans="1:5" ht="37.5">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -18060,7 +18088,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="36">
+    <row r="154" spans="1:5" ht="37.5">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -18077,7 +18105,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="36">
+    <row r="155" spans="1:5" ht="37.5">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -18094,7 +18122,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="54">
+    <row r="156" spans="1:5" ht="56.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -18126,7 +18154,7 @@
       </c>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" ht="36">
+    <row r="158" spans="1:5" ht="37.5">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -18188,7 +18216,7 @@
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" ht="72">
+    <row r="162" spans="1:5" ht="75">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -18449,7 +18477,7 @@
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" ht="54">
+    <row r="179" spans="1:5" ht="56.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -18796,7 +18824,7 @@
       </c>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" ht="36">
+    <row r="202" spans="1:5" ht="37.5">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -18875,7 +18903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="72">
+    <row r="207" spans="1:5" ht="75">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -18920,7 +18948,7 @@
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" ht="36">
+    <row r="210" spans="1:5" ht="37.5">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -18997,7 +19025,7 @@
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" ht="54">
+    <row r="215" spans="1:5" ht="56.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -19027,7 +19055,7 @@
       </c>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" ht="54">
+    <row r="217" spans="1:5" ht="56.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -19044,7 +19072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="36">
+    <row r="218" spans="1:5" ht="37.5">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -19061,7 +19089,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="36">
+    <row r="219" spans="1:5" ht="37.5">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -19078,7 +19106,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="90">
+    <row r="220" spans="1:5" ht="93.75">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -19095,7 +19123,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="54">
+    <row r="221" spans="1:5" ht="56.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -19127,7 +19155,7 @@
       </c>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" ht="54">
+    <row r="223" spans="1:5" ht="56.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -19159,7 +19187,7 @@
       </c>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" ht="54">
+    <row r="225" spans="1:5" ht="75">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -19176,7 +19204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="54">
+    <row r="226" spans="1:5" ht="56.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -19285,7 +19313,7 @@
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" ht="54">
+    <row r="233" spans="1:5" ht="56.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -19319,7 +19347,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="36">
+    <row r="235" spans="1:5" ht="37.5">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -19381,7 +19409,7 @@
       </c>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" ht="36">
+    <row r="239" spans="1:5" ht="37.5">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -19505,7 +19533,7 @@
       </c>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="37.5">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -19584,7 +19612,7 @@
       </c>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" ht="54">
+    <row r="252" spans="1:5" ht="56.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -19616,7 +19644,7 @@
       </c>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" ht="36">
+    <row r="254" spans="1:5" ht="37.5">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -19710,7 +19738,7 @@
       </c>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" ht="54">
+    <row r="260" spans="1:5" ht="75">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -20029,7 +20057,7 @@
       </c>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" ht="54">
+    <row r="281" spans="1:5" ht="56.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -20076,7 +20104,7 @@
       </c>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" ht="54">
+    <row r="284" spans="1:5" ht="56.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -20431,7 +20459,7 @@
       </c>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" ht="54">
+    <row r="307" spans="1:5" ht="56.25">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -20910,7 +20938,7 @@
       </c>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" ht="54">
+    <row r="338" spans="1:5" ht="56.25">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -21047,7 +21075,7 @@
       </c>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" ht="36">
+    <row r="347" spans="1:5" ht="37.5">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -21079,7 +21107,7 @@
       </c>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" ht="36">
+    <row r="349" spans="1:5" ht="37.5">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -21280,7 +21308,7 @@
       </c>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" ht="72">
+    <row r="362" spans="1:5" ht="75">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -21312,7 +21340,7 @@
       </c>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" ht="36">
+    <row r="364" spans="1:5" ht="37.5">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -21372,7 +21400,7 @@
       </c>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" ht="54">
+    <row r="368" spans="1:5" ht="56.25">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -21417,7 +21445,7 @@
       </c>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:6" ht="72">
+    <row r="371" spans="1:6" ht="75">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -21432,7 +21460,7 @@
       </c>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:6" ht="90">
+    <row r="372" spans="1:6" ht="93.75">
       <c r="A372" s="3">
         <v>371</v>
       </c>
@@ -21449,7 +21477,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="36">
+    <row r="373" spans="1:6" ht="37.5">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -21466,7 +21494,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="72">
+    <row r="374" spans="1:6" ht="75">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -21531,7 +21559,7 @@
       </c>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:6" ht="72">
+    <row r="378" spans="1:6" ht="75">
       <c r="A378" s="3">
         <v>377</v>
       </c>
@@ -21563,7 +21591,7 @@
       </c>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:6" ht="72">
+    <row r="380" spans="1:6" ht="75">
       <c r="A380" s="3">
         <v>379</v>
       </c>
@@ -21578,7 +21606,7 @@
       </c>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:6" ht="36">
+    <row r="381" spans="1:6" ht="37.5">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -21608,7 +21636,7 @@
       </c>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:6" ht="54">
+    <row r="383" spans="1:6" ht="56.25">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -21672,7 +21700,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="36">
+    <row r="387" spans="1:5" ht="37.5">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -21766,7 +21794,7 @@
       </c>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" ht="54">
+    <row r="393" spans="1:5" ht="56.25">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -21856,7 +21884,7 @@
       </c>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" ht="36">
+    <row r="399" spans="1:5" ht="37.5">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -21871,7 +21899,7 @@
       </c>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" ht="40.799999999999997" customHeight="1">
+    <row r="400" spans="1:5" ht="40.9" customHeight="1">
       <c r="A400" s="3">
         <v>399</v>
       </c>
@@ -21916,7 +21944,7 @@
       </c>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" ht="36">
+    <row r="403" spans="1:5" ht="37.5">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -21963,7 +21991,7 @@
       </c>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" ht="36">
+    <row r="406" spans="1:5" ht="37.5">
       <c r="A406" s="3">
         <v>405</v>
       </c>
@@ -22134,7 +22162,7 @@
       </c>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:6" ht="36">
+    <row r="417" spans="1:6" ht="37.5">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -22179,7 +22207,7 @@
       </c>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:6" ht="36">
+    <row r="420" spans="1:6" ht="37.5">
       <c r="A420" s="3">
         <v>419</v>
       </c>
@@ -22211,7 +22239,7 @@
       </c>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:6" ht="36">
+    <row r="422" spans="1:6" ht="37.5">
       <c r="A422" s="3">
         <v>421</v>
       </c>
@@ -22286,7 +22314,7 @@
       </c>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:6" ht="36">
+    <row r="427" spans="1:6" ht="37.5">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -22316,7 +22344,7 @@
       </c>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:6" ht="36">
+    <row r="429" spans="1:6" ht="37.5">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -22331,7 +22359,7 @@
       </c>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:6" ht="36">
+    <row r="430" spans="1:6" ht="37.5">
       <c r="A430" s="3">
         <v>429</v>
       </c>
@@ -22486,7 +22514,7 @@
       </c>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" ht="54">
+    <row r="440" spans="1:5" ht="56.25">
       <c r="A440" s="3">
         <v>439</v>
       </c>
@@ -22595,7 +22623,7 @@
       </c>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" ht="72">
+    <row r="447" spans="1:5" ht="75">
       <c r="A447" s="3">
         <v>446</v>
       </c>
@@ -22715,7 +22743,7 @@
       </c>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" ht="36">
+    <row r="455" spans="1:5" ht="37.5">
       <c r="A455" s="3">
         <v>454</v>
       </c>
@@ -22747,7 +22775,7 @@
       </c>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" ht="90">
+    <row r="457" spans="1:5" ht="93.75">
       <c r="A457" s="3">
         <v>456</v>
       </c>
@@ -22762,7 +22790,7 @@
       </c>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" ht="54">
+    <row r="458" spans="1:5" ht="56.25">
       <c r="A458" s="3">
         <v>457</v>
       </c>
@@ -22807,7 +22835,7 @@
       </c>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" ht="36">
+    <row r="461" spans="1:5" ht="37.5">
       <c r="A461" s="3">
         <v>460</v>
       </c>
@@ -22822,7 +22850,7 @@
       </c>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" ht="36">
+    <row r="462" spans="1:5" ht="37.5">
       <c r="A462" s="3">
         <v>461</v>
       </c>
@@ -22914,7 +22942,7 @@
       </c>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" ht="36">
+    <row r="468" spans="1:5" ht="37.5">
       <c r="A468" s="3">
         <v>467</v>
       </c>
@@ -23231,7 +23259,7 @@
       </c>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" ht="36">
+    <row r="489" spans="1:5" ht="37.5">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -23428,7 +23456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="36">
+    <row r="502" spans="1:5" ht="37.5">
       <c r="A502" s="3">
         <v>501</v>
       </c>
@@ -23552,7 +23580,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="72">
+    <row r="510" spans="1:5" ht="75">
       <c r="A510" s="3">
         <v>509</v>
       </c>
@@ -23689,7 +23717,7 @@
       </c>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" ht="36">
+    <row r="519" spans="1:5" ht="37.5">
       <c r="A519" s="3">
         <v>518</v>
       </c>
@@ -23704,7 +23732,7 @@
       </c>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" ht="36">
+    <row r="520" spans="1:5" ht="37.5">
       <c r="A520" s="3">
         <v>519</v>
       </c>
@@ -23809,7 +23837,7 @@
       </c>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" ht="54">
+    <row r="527" spans="1:5" ht="56.25">
       <c r="A527" s="3">
         <v>526</v>
       </c>
@@ -23841,7 +23869,7 @@
       </c>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" ht="36">
+    <row r="529" spans="1:5" ht="37.5">
       <c r="A529" s="3">
         <v>528</v>
       </c>
@@ -23991,7 +24019,7 @@
       </c>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" ht="36">
+    <row r="539" spans="1:5" ht="37.5">
       <c r="A539" s="3">
         <v>538</v>
       </c>
@@ -24372,7 +24400,7 @@
       </c>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" ht="54">
+    <row r="564" spans="1:5" ht="56.25">
       <c r="A564" s="3">
         <v>563</v>
       </c>
@@ -24498,7 +24526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="36">
+    <row r="572" spans="1:5" ht="37.5">
       <c r="A572" s="3">
         <v>571</v>
       </c>
@@ -24828,7 +24856,7 @@
       </c>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" ht="72">
+    <row r="594" spans="1:5" ht="75">
       <c r="A594" s="3">
         <v>593</v>
       </c>
@@ -24920,7 +24948,7 @@
       </c>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" ht="54">
+    <row r="600" spans="1:5" ht="56.25">
       <c r="A600" s="3">
         <v>599</v>
       </c>
@@ -25149,7 +25177,7 @@
       </c>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" ht="54">
+    <row r="615" spans="1:5" ht="56.25">
       <c r="A615" s="3">
         <v>614</v>
       </c>
@@ -25566,7 +25594,7 @@
       </c>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" ht="36">
+    <row r="642" spans="1:5" ht="37.5">
       <c r="A642" s="3">
         <v>641</v>
       </c>
@@ -25733,7 +25761,7 @@
       </c>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" ht="36">
+    <row r="653" spans="1:5" ht="37.5">
       <c r="A653" s="3">
         <v>652</v>
       </c>
@@ -26159,7 +26187,7 @@
       </c>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" ht="37.5">
       <c r="A681" s="3">
         <v>680</v>
       </c>
@@ -26463,7 +26491,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="36">
+    <row r="701" spans="1:5" ht="37.5">
       <c r="A701" s="3">
         <v>700</v>
       </c>
@@ -26724,7 +26752,7 @@
       </c>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" ht="36">
+    <row r="718" spans="1:5" ht="37.5">
       <c r="A718" s="3">
         <v>717</v>
       </c>
@@ -26829,7 +26857,7 @@
       </c>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" ht="36">
+    <row r="725" spans="1:5" ht="37.5">
       <c r="A725" s="3">
         <v>724</v>
       </c>
@@ -26889,7 +26917,7 @@
       </c>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" ht="36">
+    <row r="729" spans="1:5" ht="37.5">
       <c r="A729" s="3">
         <v>728</v>
       </c>
@@ -27341,7 +27369,7 @@
       </c>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" ht="36">
+    <row r="759" spans="1:5" ht="37.5">
       <c r="A759" s="3">
         <v>758</v>
       </c>
@@ -27694,7 +27722,7 @@
       </c>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" ht="36">
+    <row r="782" spans="1:5" ht="37.5">
       <c r="A782" s="3">
         <v>781</v>
       </c>
@@ -28353,7 +28381,7 @@
       </c>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" ht="36">
+    <row r="825" spans="1:5" ht="37.5">
       <c r="A825" s="3">
         <v>824</v>
       </c>
@@ -28503,7 +28531,7 @@
       </c>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" ht="36">
+    <row r="835" spans="1:5" ht="37.5">
       <c r="A835" s="3">
         <v>834</v>
       </c>
@@ -29299,7 +29327,7 @@
       </c>
       <c r="E886" s="1"/>
     </row>
-    <row r="887" spans="1:5" ht="36">
+    <row r="887" spans="1:5" ht="37.5">
       <c r="A887" s="3">
         <v>886</v>
       </c>
@@ -29453,7 +29481,7 @@
       </c>
       <c r="E896" s="1"/>
     </row>
-    <row r="897" spans="1:5" ht="54">
+    <row r="897" spans="1:5" ht="56.25">
       <c r="A897" s="3">
         <v>896</v>
       </c>
@@ -29911,7 +29939,7 @@
       </c>
       <c r="E926" s="1"/>
     </row>
-    <row r="927" spans="1:5" ht="54">
+    <row r="927" spans="1:5" ht="56.25">
       <c r="A927" s="3">
         <v>926</v>
       </c>
@@ -30292,7 +30320,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="952" spans="1:5" ht="36">
+    <row r="952" spans="1:5" ht="37.5">
       <c r="A952" s="3">
         <v>951</v>
       </c>
@@ -30519,7 +30547,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="967" spans="1:5" ht="36">
+    <row r="967" spans="1:5" ht="37.5">
       <c r="A967" s="3">
         <v>966</v>
       </c>
@@ -31255,13 +31283,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="66.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.796875" customWidth="1"/>
+    <col min="3" max="3" width="66.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="36">
+    <row r="3" spans="2:4" ht="37.5">
       <c r="B3" s="9" cm="1">
         <f t="array" ref="B3:D60">_xlfn._xlws.FILTER(クイズ!A2:C1001, ISNUMBER(SEARCH("」という意味", クイズ!B2:B1001)))</f>
         <v>16</v>
@@ -31273,7 +31301,7 @@
         <v>お転婆</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="36">
+    <row r="4" spans="2:4" ht="37.5">
       <c r="B4" s="9">
         <v>23</v>
       </c>
@@ -31284,7 +31312,7 @@
         <v>たほいや</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="36">
+    <row r="5" spans="2:4" ht="56.25">
       <c r="B5" s="9">
         <v>25</v>
       </c>
@@ -31295,7 +31323,7 @@
         <v>ラニーニャ現象</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="36">
+    <row r="6" spans="2:4" ht="37.5">
       <c r="B6" s="9">
         <v>30</v>
       </c>
@@ -31306,7 +31334,7 @@
         <v>ムニン</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="36">
+    <row r="7" spans="2:4" ht="37.5">
       <c r="B7" s="9">
         <v>124</v>
       </c>
@@ -31317,7 +31345,7 @@
         <v>ミルフィーユ</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="36">
+    <row r="8" spans="2:4" ht="37.5">
       <c r="B8" s="9">
         <v>135</v>
       </c>
@@ -31328,7 +31356,7 @@
         <v>カルトン</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="36">
+    <row r="9" spans="2:4" ht="37.5">
       <c r="B9" s="9">
         <v>158</v>
       </c>
@@ -31339,7 +31367,7 @@
         <v>インティ・ライミ</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="36">
+    <row r="10" spans="2:4" ht="37.5">
       <c r="B10" s="9">
         <v>163</v>
       </c>
@@ -31350,7 +31378,7 @@
         <v>サッカー台</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="36">
+    <row r="11" spans="2:4" ht="37.5">
       <c r="B11" s="9">
         <v>168</v>
       </c>
@@ -31361,7 +31389,7 @@
         <v>カテナチオ</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="36">
+    <row r="12" spans="2:4" ht="37.5">
       <c r="B12" s="9">
         <v>192</v>
       </c>
@@ -31372,7 +31400,7 @@
         <v>Q.E.D</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="36">
+    <row r="13" spans="2:4" ht="37.5">
       <c r="B13" s="9">
         <v>199</v>
       </c>
@@ -31383,7 +31411,7 @@
         <v>ノーサイド</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="36">
+    <row r="14" spans="2:4" ht="37.5">
       <c r="B14" s="9">
         <v>232</v>
       </c>
@@ -31394,7 +31422,7 @@
         <v>ラング・ド・シャ</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="36">
+    <row r="15" spans="2:4" ht="37.5">
       <c r="B15" s="9">
         <v>239</v>
       </c>
@@ -31405,7 +31433,7 @@
         <v>アルバトロス</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="36">
+    <row r="16" spans="2:4" ht="37.5">
       <c r="B16" s="9">
         <v>261</v>
       </c>
@@ -31416,7 +31444,7 @@
         <v>アルベド</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="36">
+    <row r="17" spans="2:4" ht="37.5">
       <c r="B17" s="9">
         <v>272</v>
       </c>
@@ -31427,7 +31455,7 @@
         <v>天地無用</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="54">
+    <row r="18" spans="2:4" ht="56.25">
       <c r="B18" s="9">
         <v>291</v>
       </c>
@@ -31438,7 +31466,7 @@
         <v>デウス・エクス・マキナ</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="36">
+    <row r="19" spans="2:4" ht="37.5">
       <c r="B19" s="9">
         <v>331</v>
       </c>
@@ -31449,7 +31477,7 @@
         <v>スヌーズ</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="36">
+    <row r="20" spans="2:4" ht="37.5">
       <c r="B20" s="9">
         <v>346</v>
       </c>
@@ -31460,7 +31488,7 @@
         <v>アカペラ</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="36">
+    <row r="21" spans="2:4" ht="37.5">
       <c r="B21" s="9">
         <v>386</v>
       </c>
@@ -31471,7 +31499,7 @@
         <v>メニスカス</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="36">
+    <row r="22" spans="2:4" ht="37.5">
       <c r="B22" s="9">
         <v>400</v>
       </c>
@@ -31482,7 +31510,7 @@
         <v>巨人の肩の上に立つ</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="36">
+    <row r="23" spans="2:4" ht="37.5">
       <c r="B23" s="9">
         <v>410</v>
       </c>
@@ -31493,7 +31521,7 @@
         <v>デミグラスソース</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="36">
+    <row r="24" spans="2:4" ht="37.5">
       <c r="B24" s="9">
         <v>419</v>
       </c>
@@ -31504,7 +31532,7 @@
         <v>トリアージ</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="36">
+    <row r="25" spans="2:4" ht="37.5">
       <c r="B25" s="9">
         <v>460</v>
       </c>
@@ -31515,7 +31543,7 @@
         <v>コル・カロリ</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="36">
+    <row r="26" spans="2:4" ht="37.5">
       <c r="B26" s="9">
         <v>467</v>
       </c>
@@ -31526,7 +31554,7 @@
         <v>ブルペン</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="36">
+    <row r="27" spans="2:4" ht="37.5">
       <c r="B27" s="9">
         <v>490</v>
       </c>
@@ -31537,7 +31565,7 @@
         <v>ラ・クンパルシータ</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="36">
+    <row r="28" spans="2:4" ht="37.5">
       <c r="B28" s="9">
         <v>497</v>
       </c>
@@ -31548,7 +31576,7 @@
         <v>スウッシュ</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="36">
+    <row r="29" spans="2:4" ht="37.5">
       <c r="B29" s="9">
         <v>509</v>
       </c>
@@ -31559,7 +31587,7 @@
         <v>パルムドール</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="36">
+    <row r="30" spans="2:4" ht="37.5">
       <c r="B30" s="9">
         <v>517</v>
       </c>
@@ -31570,7 +31598,7 @@
         <v>ハロゲン</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="36">
+    <row r="31" spans="2:4" ht="37.5">
       <c r="B31" s="9">
         <v>532</v>
       </c>
@@ -31581,7 +31609,7 @@
         <v>マチュ・ピチュ</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="36">
+    <row r="32" spans="2:4" ht="37.5">
       <c r="B32" s="9">
         <v>546</v>
       </c>
@@ -31592,7 +31620,7 @@
         <v>アンティパスト</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="36">
+    <row r="33" spans="2:4" ht="37.5">
       <c r="B33" s="9">
         <v>563</v>
       </c>
@@ -31603,7 +31631,7 @@
         <v>アンシャンレジーム</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="36">
+    <row r="34" spans="2:4" ht="37.5">
       <c r="B34" s="9">
         <v>573</v>
       </c>
@@ -31614,7 +31642,7 @@
         <v>レッサーパンダ</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="36">
+    <row r="35" spans="2:4" ht="37.5">
       <c r="B35" s="9">
         <v>583</v>
       </c>
@@ -31625,7 +31653,7 @@
         <v>シャーレ</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="36">
+    <row r="36" spans="2:4" ht="37.5">
       <c r="B36" s="9">
         <v>587</v>
       </c>
@@ -31636,7 +31664,7 @@
         <v>ミクロネシア</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="36">
+    <row r="37" spans="2:4" ht="37.5">
       <c r="B37" s="9">
         <v>622</v>
       </c>
@@ -31647,7 +31675,7 @@
         <v>ルーマニア</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="36">
+    <row r="38" spans="2:4" ht="37.5">
       <c r="B38" s="9">
         <v>628</v>
       </c>
@@ -31658,7 +31686,7 @@
         <v>荼毘</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="36">
+    <row r="39" spans="2:4" ht="37.5">
       <c r="B39" s="9">
         <v>643</v>
       </c>
@@ -31669,7 +31697,7 @@
         <v>クロワッサン</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="36">
+    <row r="40" spans="2:4" ht="37.5">
       <c r="B40" s="9">
         <v>648</v>
       </c>
@@ -31680,7 +31708,7 @@
         <v>ムーラン・ルージュ</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="36">
+    <row r="41" spans="2:4" ht="37.5">
       <c r="B41" s="9">
         <v>670</v>
       </c>
@@ -31691,7 +31719,7 @@
         <v>アイネ・クライネ・ナハトムジーク</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="36">
+    <row r="42" spans="2:4" ht="37.5">
       <c r="B42" s="9">
         <v>677</v>
       </c>
@@ -31702,7 +31730,7 @@
         <v>ピッコロ</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="36">
+    <row r="43" spans="2:4" ht="37.5">
       <c r="B43" s="9">
         <v>687</v>
       </c>
@@ -31713,7 +31741,7 @@
         <v>ミカエル</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="36">
+    <row r="44" spans="2:4" ht="37.5">
       <c r="B44" s="9">
         <v>692</v>
       </c>
@@ -31724,7 +31752,7 @@
         <v>チョーカー</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="36">
+    <row r="45" spans="2:4" ht="37.5">
       <c r="B45" s="9">
         <v>700</v>
       </c>
@@ -31735,7 +31763,7 @@
         <v>アンカー</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="36">
+    <row r="46" spans="2:4" ht="37.5">
       <c r="B46" s="9">
         <v>714</v>
       </c>
@@ -31746,7 +31774,7 @@
         <v>アオザイ</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="36">
+    <row r="47" spans="2:4" ht="37.5">
       <c r="B47" s="9">
         <v>720</v>
       </c>
@@ -31757,7 +31785,7 @@
         <v>ホワイエ</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="36">
+    <row r="48" spans="2:4" ht="37.5">
       <c r="B48" s="9">
         <v>727</v>
       </c>
@@ -31768,7 +31796,7 @@
         <v>ペルソナ・ノン・グラータ</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="36">
+    <row r="49" spans="2:4" ht="37.5">
       <c r="B49" s="9">
         <v>741</v>
       </c>
@@ -31779,7 +31807,7 @@
         <v>ノルマ</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="36">
+    <row r="50" spans="2:4" ht="37.5">
       <c r="B50" s="9">
         <v>748</v>
       </c>
@@ -31790,7 +31818,7 @@
         <v>ゲレンデ</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="36">
+    <row r="51" spans="2:4" ht="37.5">
       <c r="B51" s="9">
         <v>783</v>
       </c>
@@ -31812,7 +31840,7 @@
         <v>レグルス</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="36">
+    <row r="53" spans="2:4" ht="37.5">
       <c r="B53" s="9">
         <v>800</v>
       </c>
@@ -31823,7 +31851,7 @@
         <v>エルミタージュ美術館</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="36">
+    <row r="54" spans="2:4" ht="37.5">
       <c r="B54">
         <v>806</v>
       </c>
@@ -31834,7 +31862,7 @@
         <v>アトマイザー</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="36">
+    <row r="55" spans="2:4" ht="37.5">
       <c r="B55">
         <v>833</v>
       </c>
@@ -31845,7 +31873,7 @@
         <v>マスカラ</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="36">
+    <row r="56" spans="2:4" ht="37.5">
       <c r="B56">
         <v>851</v>
       </c>
@@ -31856,7 +31884,7 @@
         <v>UNO</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="36">
+    <row r="57" spans="2:4" ht="37.5">
       <c r="B57">
         <v>863</v>
       </c>
@@ -31867,7 +31895,7 @@
         <v>ウクレレ</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="36">
+    <row r="58" spans="2:4" ht="37.5">
       <c r="B58">
         <v>864</v>
       </c>
@@ -31878,7 +31906,7 @@
         <v>モンスーン</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="36">
+    <row r="59" spans="2:4" ht="37.5">
       <c r="B59">
         <v>951</v>
       </c>
@@ -31889,7 +31917,7 @@
         <v>オナー</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="36">
+    <row r="60" spans="2:4" ht="37.5">
       <c r="B60">
         <v>990</v>
       </c>
@@ -31912,14 +31940,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="36">
+    <row r="3" spans="2:5" ht="37.5">
       <c r="B3" s="10">
         <v>104</v>
       </c>
@@ -31933,7 +31961,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="36">
+    <row r="4" spans="2:5" ht="37.5">
       <c r="B4" s="10">
         <v>113</v>
       </c>
@@ -31947,7 +31975,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="36">
+    <row r="5" spans="2:5" ht="37.5">
       <c r="B5" s="10">
         <v>114</v>
       </c>
@@ -31971,7 +31999,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="36">
+    <row r="7" spans="2:5" ht="37.5">
       <c r="B7" s="10">
         <v>116</v>
       </c>
@@ -32031,7 +32059,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" ht="37.5">
       <c r="B12" s="10">
         <v>188</v>
       </c>
@@ -32043,7 +32071,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="36">
+    <row r="13" spans="2:5" ht="37.5">
       <c r="B13" s="10">
         <v>189</v>
       </c>
@@ -32070,11 +32098,11 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="56.69921875" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -32091,7 +32119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="54">
+    <row r="3" spans="2:5" ht="56.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -32103,7 +32131,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="36">
+    <row r="4" spans="2:5" ht="37.5">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -32115,7 +32143,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="54">
+    <row r="5" spans="2:5" ht="56.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -32129,7 +32157,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="36">
+    <row r="6" spans="2:5" ht="37.5">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -32141,7 +32169,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="54">
+    <row r="7" spans="2:5" ht="56.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -32621,11 +32649,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="56.69921875" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -32642,7 +32670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="54">
+    <row r="3" spans="2:5" ht="56.25">
       <c r="B3" s="3">
         <f t="shared" ref="B3:B34" si="0">ROW()-2</f>
         <v>1</v>
@@ -32655,7 +32683,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="36">
+    <row r="4" spans="2:5" ht="37.5">
       <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32668,7 +32696,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="36">
+    <row r="5" spans="2:5" ht="56.25">
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32681,7 +32709,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="54">
+    <row r="6" spans="2:5" ht="56.25">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32694,7 +32722,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="54">
+    <row r="7" spans="2:5" ht="56.25">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32707,7 +32735,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" ht="36">
+    <row r="8" spans="2:5" ht="37.5">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32720,7 +32748,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="36">
+    <row r="9" spans="2:5" ht="56.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32733,7 +32761,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="54">
+    <row r="10" spans="2:5" ht="56.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32748,7 +32776,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="54">
+    <row r="11" spans="2:5" ht="56.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32761,7 +32789,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" ht="36">
+    <row r="12" spans="2:5" ht="37.5">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32774,7 +32802,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" ht="54">
+    <row r="13" spans="2:5" ht="56.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32787,7 +32815,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" ht="54">
+    <row r="14" spans="2:5" ht="56.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32813,7 +32841,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" ht="36">
+    <row r="16" spans="2:5" ht="56.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -32826,7 +32854,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" ht="36">
+    <row r="17" spans="2:5" ht="37.5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -32839,7 +32867,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" ht="36">
+    <row r="18" spans="2:5" ht="37.5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -32852,7 +32880,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" ht="36">
+    <row r="19" spans="2:5" ht="37.5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -33324,7 +33352,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:5" ht="36">
+    <row r="61" spans="2:5" ht="37.5">
       <c r="B61" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -33374,22 +33402,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.19921875" customWidth="1"/>
+    <col min="8" max="8" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="180">
+    <row r="2" spans="2:8" ht="131.25">
       <c r="C2" t="s">
-        <v>3296</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3327</v>
+        <v>3295</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>3329</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -33409,13 +33437,13 @@
         <v>3222</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>3302</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="36">
+        <v>3300</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="37.5">
       <c r="B4" s="3">
         <f t="shared" ref="B4:B35" si="0">ROW()-3</f>
         <v>1</v>
@@ -33423,21 +33451,21 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3299</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="27" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>3187</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="28" t="s">
         <v>3241</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="28">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" ht="72">
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:8" ht="93.75">
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -33445,23 +33473,23 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>3316</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="27" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>3197</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="28" t="s">
         <v>3225</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="28">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="54">
+      <c r="H5" s="27" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="56.25">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -33469,23 +33497,23 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3310</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="27" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>1091</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="28" t="s">
         <v>3239</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="28">
         <v>6</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="54">
+      <c r="H6" s="27" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="75">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -33493,23 +33521,23 @@
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="27" t="s">
         <v>3247</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="28" t="s">
         <v>3198</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="28" t="s">
         <v>3228</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="28">
         <v>9</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>3324</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="36">
+      <c r="H7" s="28" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="56.25">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -33517,23 +33545,23 @@
       <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>3300</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="27" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>3235</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>3301</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="28" t="s">
+        <v>3299</v>
+      </c>
+      <c r="G8" s="28">
         <v>4</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="54">
+      <c r="H8" s="27" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="56.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -33541,20 +33569,21 @@
       <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>3321</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>3297</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" s="29" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>3230</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="54">
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" ht="56.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -33562,20 +33591,21 @@
       <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>3320</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>3298</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="27" t="s">
+        <v>3315</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>3297</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>3233</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="54">
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="2:8" ht="56.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -33583,23 +33613,23 @@
       <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="27" t="s">
         <v>3246</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="28" t="s">
         <v>3208</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="28" t="s">
         <v>3234</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="28">
         <v>5</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>3303</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="54">
+      <c r="H11" s="28" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="56.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -33607,23 +33637,23 @@
       <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>3328</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="27" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>3196</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="28" t="s">
         <v>3223</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="28">
         <v>12</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="54">
+      <c r="H12" s="28" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="56.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -33631,23 +33661,23 @@
       <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>3331</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="27" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>3189</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="32" t="s">
         <v>3224</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="28">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="54">
+      <c r="H13" s="28" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="56.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -33655,20 +33685,21 @@
       <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="27" t="s">
         <v>3171</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="27" t="s">
         <v>3240</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="28" t="s">
         <v>3147</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="54">
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="2:8" ht="56.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -33676,18 +33707,18 @@
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>3318</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="27" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>3289</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
         <v>17</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>3319</v>
+      <c r="H15" s="27" t="s">
+        <v>3328</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -33707,7 +33738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="54">
+    <row r="17" spans="2:7" ht="56.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -33726,7 +33757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="54">
+    <row r="18" spans="2:7" ht="56.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -34360,37 +34391,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F8117F-FC71-4B2C-9E6F-7B7BDBB12DA5}">
   <dimension ref="B2:X18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="3.3984375" customWidth="1"/>
-    <col min="11" max="11" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="21" width="3.3984375" customWidth="1"/>
-    <col min="22" max="22" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="74.296875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="3.75" customWidth="1"/>
+    <col min="22" max="22" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="23" t="s">
         <v>3292</v>
       </c>
-      <c r="F2" t="s">
-        <v>3314</v>
-      </c>
-      <c r="K2" s="30" t="s">
+      <c r="F2" s="30" t="s">
+        <v>3311</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="23" t="s">
         <v>3293</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="30" t="s">
         <v>3294</v>
       </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
     </row>
     <row r="3" spans="2:22" ht="18" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -34442,548 +34490,579 @@
       <c r="U3" s="15">
         <v>17</v>
       </c>
-      <c r="V3" t="s">
-        <v>3315</v>
+      <c r="V3" s="30" t="s">
+        <v>3312</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="18" customHeight="1">
-      <c r="C4" s="22">
+      <c r="B4" s="30"/>
+      <c r="C4" s="33">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="33" t="s">
         <v>3290</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="16" t="s">
         <v>3248</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="34" t="s">
         <v>3249</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="19" t="s">
         <v>3250</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="30"/>
     </row>
     <row r="5" spans="2:22" ht="18" customHeight="1">
-      <c r="C5" s="22">
+      <c r="B5" s="30"/>
+      <c r="C5" s="33">
         <v>10</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="33" t="s">
         <v>3290</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="16" t="s">
         <v>3248</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="34" t="s">
         <v>3248</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="34" t="s">
         <v>3256</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="34" t="s">
         <v>3257</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="34" t="s">
         <v>3258</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="34" t="s">
         <v>3259</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="34" t="s">
         <v>3258</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="34" t="s">
         <v>3260</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="34" t="s">
         <v>3254</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="19" t="s">
         <v>3250</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
-      <c r="V5" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="30" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18" customHeight="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="33">
+        <v>6</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>3260</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>3250</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="24" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18" customHeight="1">
+      <c r="B7" s="30"/>
+      <c r="C7" s="33">
+        <v>9</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>3270</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>3273</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>3257</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>3250</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="30" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18" customHeight="1">
+      <c r="B8" s="30"/>
+      <c r="C8" s="33">
+        <v>4</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>3253</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>3250</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="24" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18" customHeight="1">
+      <c r="B9" s="30"/>
+      <c r="C9" s="33">
+        <v>8</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>3255</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>3253</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>3250</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="30" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18" customHeight="1">
+      <c r="B10" s="30"/>
+      <c r="C10" s="33">
+        <v>7</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>3264</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>3265</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>3250</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="30" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="18" customHeight="1">
+      <c r="B11" s="30"/>
+      <c r="C11" s="33">
+        <v>5</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>3260</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>3250</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="24" t="s">
         <v>3308</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="18" customHeight="1">
-      <c r="C6" s="22">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22" t="s">
+    <row r="12" spans="2:22" ht="18" customHeight="1">
+      <c r="B12" s="30"/>
+      <c r="C12" s="33">
+        <v>12</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>3290</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>3248</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F12" s="38" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>3277</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>3266</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>3263</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>3260</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>3267</v>
-      </c>
-      <c r="J6" s="27" t="s">
+      <c r="K12" s="38" t="s">
+        <v>3269</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>3278</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>3279</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>3280</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>3269</v>
+      </c>
+      <c r="P12" s="21" t="s">
         <v>3250</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="33" t="s">
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="24" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18" customHeight="1">
+      <c r="B13" s="30"/>
+      <c r="C13" s="33">
+        <v>11</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>3282</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>3283</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>3261</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>3284</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>3250</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>3264</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>3253</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>3285</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>3250</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="24" t="s">
         <v>3313</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="18" customHeight="1">
-      <c r="C7" s="22">
-        <v>9</v>
-      </c>
-      <c r="D7" s="22" t="s">
+    <row r="14" spans="2:22" ht="18" customHeight="1">
+      <c r="B14" s="30"/>
+      <c r="C14" s="33">
+        <v>2</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>3290</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E14" s="18" t="s">
         <v>3248</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F14" s="21" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="40"/>
+    </row>
+    <row r="15" spans="2:22" ht="18" customHeight="1">
+      <c r="B15" s="30"/>
+      <c r="C15" s="33">
+        <v>17</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F15" s="38" t="s">
         <v>3268</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>3269</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>3270</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>3271</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="G15" s="38" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I15" s="38" t="s">
         <v>3272</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>3273</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>3257</v>
-      </c>
-      <c r="M7" s="28" t="s">
+      <c r="J15" s="38" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>3285</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>3249</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>3286</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>3249</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>3287</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>3284</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>3276</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>3287</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>3287</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>3288</v>
+      </c>
+      <c r="U15" s="22" t="s">
         <v>3250</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" t="s">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="18" customHeight="1">
-      <c r="C8" s="22">
-        <v>4</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>3253</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>3250</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="33" t="s">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="18" customHeight="1">
-      <c r="C9" s="22">
-        <v>8</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>3251</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>3253</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>3254</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>3255</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>3253</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>3250</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
-      <c r="V9" t="s">
-        <v>3307</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="18" customHeight="1">
-      <c r="C10" s="22">
-        <v>7</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>3251</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>3262</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>3250</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" t="s">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="18" customHeight="1">
-      <c r="C11" s="22">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>3274</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>3263</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>3260</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>3250</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="33" t="s">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="18" customHeight="1">
-      <c r="C12" s="22">
-        <v>12</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>3268</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>3275</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>3276</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>3277</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>3266</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>3269</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>3278</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>3279</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>3280</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>3269</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>3250</v>
-      </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="33" t="s">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="18" customHeight="1">
-      <c r="C13" s="22">
-        <v>11</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>3281</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>3282</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>3283</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>3261</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>3284</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>3250</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>3264</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>3253</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>3285</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>3250</v>
-      </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="33" t="s">
-        <v>3317</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="18" customHeight="1">
-      <c r="C14" s="22">
-        <v>2</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>3250</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="31" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="18" customHeight="1">
-      <c r="C15" s="22">
-        <v>17</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>3290</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>3268</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>3275</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>3248</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>3272</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>3248</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>3285</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>3249</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>3286</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>3249</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>3287</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>3284</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>3276</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>3287</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>3287</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>3288</v>
-      </c>
-      <c r="U15" s="29" t="s">
-        <v>3250</v>
-      </c>
+      <c r="V15" s="30"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="33" t="s">
         <v>3291</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="30">
         <f>SUM(C4:C15)</f>
         <v>94</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="33" t="s">
         <v>3290</v>
       </c>
-    </row>
-    <row r="18" spans="24:24" ht="270">
-      <c r="X18" s="34" t="s">
-        <v>3326</v>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+    </row>
+    <row r="18" spans="24:24" ht="281.25">
+      <c r="X18" s="25" t="s">
+        <v>3321</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34993,9 +35072,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="9" max="9" width="22.19921875" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10">
@@ -35212,7 +35291,7 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="3:13">
       <c r="C2" t="s">

--- a/quiz/betamori.xlsx
+++ b/quiz/betamori.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\github\AC_WEB_DFN\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\github\nasu\AC_WEB_DFN\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE78D0A-BA39-4AE9-B24F-2AB7F47CCC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8929DE04-E35B-426F-A57D-01010F21E207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クイズ" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="自作問題" sheetId="4" r:id="rId4"/>
     <sheet name="ナスクイズ" sheetId="7" r:id="rId5"/>
     <sheet name="ナスクイズ2" sheetId="8" r:id="rId6"/>
-    <sheet name="点数表" sheetId="9" r:id="rId7"/>
-    <sheet name="タイトル戦" sheetId="6" r:id="rId8"/>
-    <sheet name="時代区分_元号" sheetId="5" r:id="rId9"/>
+    <sheet name="自己紹介クイズ" sheetId="10" r:id="rId7"/>
+    <sheet name="点数表" sheetId="9" r:id="rId8"/>
+    <sheet name="タイトル戦" sheetId="6" r:id="rId9"/>
+    <sheet name="時代区分_元号" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ナスクイズ!$B$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">ナスクイズ2!$B$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">自己紹介クイズ!$B$3:$H$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="3370">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -14839,10 +14840,7 @@
       <t>アツ</t>
     </rPh>
     <rPh sb="132" eb="133">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>カ</t>
+      <t>ネンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -14970,6 +14968,648 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漫画</t>
+    <rPh sb="0" eb="2">
+      <t>マンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎解き</t>
+    <rPh sb="0" eb="2">
+      <t>ナゾト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵画</t>
+    <rPh sb="0" eb="2">
+      <t>カイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お笑い</t>
+    <rPh sb="1" eb="2">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将棋</t>
+    <rPh sb="0" eb="2">
+      <t>ショウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競プロ</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛媛</t>
+    <rPh sb="0" eb="2">
+      <t>エヒメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小説</t>
+    <rPh sb="0" eb="2">
+      <t>ショウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方舟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GTR</t>
+  </si>
+  <si>
+    <t>ぷよぷよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岐阜県のタナカッチが考案したため岐阜田中連鎖やグレート田中連鎖を略した名称で呼ばれる、ぷよぷよでよく用いられるある連鎖の形を示す用語を、アルファベット三文字で何と言うでしょう。</t>
+    <rPh sb="0" eb="3">
+      <t>ギフケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウアン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ギフ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レンサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>レンサ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>リャク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>レンサ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>サンモジ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中二病でも恋がしたい!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呂布カルマ</t>
+    <rPh sb="0" eb="2">
+      <t>リョフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深さ優先探索</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランジャタイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>声優</t>
+    <rPh sb="0" eb="2">
+      <t>セイユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花守ゆみり</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メダリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぞ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファベットの14番、1番、26番、15番でNAZO</t>
+    <rPh sb="10" eb="11">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○ノアの方舟</t>
+    <rPh sb="4" eb="6">
+      <t>ハコブネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオどっとあい第62代目パーソナリティを務めた、演じたキャラクターに、天谷颯太（あまやそうた）、御園千綾（みそのちあや）、ウリたん、佐藤心（さとうしん）、各務原なでしこ（かがみはらなでしこ）、小鳥遊ホシノ（たかなしほしの）などがいる声優は誰でしょう</t>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>セイユウ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいうら、ローリング☆ガールズ、えとたま、アイドルマスターシンデレラガールズ、ゆるキャン、ブルーアーカイブ
+他には、三ノ輪銀（ゆゆゆ）、花小泉杏（あんはぴ）、ねむりん（まほいく）、旋風こより（灼熱の卓球娘）、ゼロ（ゼロの書）、早坂愛（かぐや様）</t>
+    <rPh sb="54" eb="55">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ハナコイズミ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>アンズ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ツムジカゼ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シャクネツ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>タッキュウムスメ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ハヤサカ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語の略称でDFSとも呼ばれる、隣接する頂点を進めるだけ進み、未到達の頂点が無ければ前の頂点に戻ることで、グラフの連結成分内を探索するアルゴリズムのことを、開始点に近い頂点から探索する幅優先探索に対してなんというでしょう。</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リャクショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ミトウタツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>レンケツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>カイシテン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="92" eb="97">
+      <t>ハバユウセンタンサク</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「最後にたくさんのナスが描かれている」という意味ではない、マルガリータ王女とそれを取り囲む女官（にょかん）たち、および作者のベラスケス自身が描かれている絵画の名前はなんでしょう。</t>
+    <rPh sb="1" eb="3">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>オウジョ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニョカン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サクシャ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カイガ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ふんどし」、「パンツを脱ぐ」、「高跳び」、といえば、プロ棋士の佐藤紳哉（さとうしんや）がよく持ちネタに使うことでもお馴染みの、何という将棋の駒に用いられる言葉でしょう</t>
+    <rPh sb="12" eb="13">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タカト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ハジメ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナジ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桂馬</t>
+    <rPh sb="0" eb="2">
+      <t>ケイマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルでは、「これがボクシングならありえねぇ言葉の重みに差がありすぎる」、「HIPHOPは文化でカルチャーで音楽で文学でオモチャじゃねえんだ」、「終わった後にしゃべんな」などのパンチラインがある、『マッドマックスTV(ティービー）論破王』ではひろゆきと並び立つディベータ―として知られるラッパーは誰でしょう</t>
+    <rPh sb="22" eb="24">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ブンカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ブンガク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「虎虎（とらこ）」によるライトノベルで、ダークフレイムマスターこと富樫 勇太（とがし ゆうた）と、邪王真眼の使い手こと小鳥遊 六花（たかなし りっか）たちの交流を描く学園ラブコメディはなんでしょう</t>
+    <rPh sb="1" eb="2">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>コウリュウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ガクエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな二文字のこれな～んだ？
+13ぶんの7, 26ぶんの1, 1, 26ぶんの15</t>
+    <rPh sb="4" eb="7">
+      <t>ニモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022年のMRC大賞を受賞した夕木春央（ゆうきはるお）の小説のタイトルにもなっている、旧約聖書の創世記で、神が起こした大洪水からノアの家族と地球上にいたすべての動物のつがいの命を守った舟はなんでしょう</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウセツ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>キュウヤクセイショ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ダイコウズイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>チキュウジョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>イノチ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>フネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小市眞琴（こいちまこと）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイドルマスターシンデレラガールズ、スター☆トゥインクルプリキュア、シャングリラ・フロンティア、転生したら第七王子だったので、気ままに魔術を極めます、メダリスト</t>
+    <rPh sb="48" eb="50">
+      <t>テンセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オウジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>マジュツ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>キワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「風が強い日に外に出たら猫が飛んできて耳から入り、国崎を操縦して最後にはダブル将棋ロボになる」というネタをM-1グランプリ2021の決勝戦で披露し、志らく（しらく）からは96点、ナス太郎からは98点をつけられたにもかかわらず最下位となってしまった、伊藤幸司（いとう こうじ）と国崎和也（くにざき かずや）からなるお笑いコンビはなんでしょう</t>
+    <rPh sb="66" eb="68">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒロウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結城晴を演じた声優で、その他の役に、那須ゆみか、オイカッツォ、ロイド＝ディ＝サルーム、鴗鳥理凰（そにどりりおう）などがあるのは誰でしょう</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイユウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○depth-first search
+DFナス太郎のDFとは関係ありません</t>
+    <rPh sb="24" eb="26">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「邪眼（イービルアイ）」
+DFナス太郎のDFの元ネタです</t>
+    <rPh sb="17" eb="19">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15184,7 +15824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -15285,6 +15925,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15690,14 +16351,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="88.75" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="59.75" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="88.69921875" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="4" max="4" width="59.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15749,7 +16412,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="56.25">
+    <row r="4" spans="1:5" ht="54">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15794,7 +16457,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="56.25">
+    <row r="7" spans="1:5" ht="54">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -15935,7 +16598,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="37.5">
+    <row r="16" spans="1:5" ht="36">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -16091,7 +16754,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="75">
+    <row r="26" spans="1:5" ht="72">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -16183,7 +16846,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="56.25">
+    <row r="32" spans="1:5" ht="54">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -16538,7 +17201,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="37.5">
+    <row r="55" spans="1:5" ht="36">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -16555,7 +17218,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="37.5">
+    <row r="56" spans="1:5" ht="36">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -16636,7 +17299,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="56.25">
+    <row r="61" spans="1:5" ht="54">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -16653,7 +17316,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="56.25">
+    <row r="62" spans="1:5" ht="54">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -16683,7 +17346,7 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="56.25">
+    <row r="64" spans="1:5" ht="54">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -16824,7 +17487,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="75">
+    <row r="73" spans="1:5" ht="72">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -17043,7 +17706,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="56.25">
+    <row r="87" spans="1:6" ht="54">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -17261,7 +17924,7 @@
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" ht="75">
+    <row r="101" spans="1:5" ht="72">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -17293,7 +17956,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" ht="37.5">
+    <row r="103" spans="1:5" ht="36">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -17325,7 +17988,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="37.5">
+    <row r="105" spans="1:5" ht="36">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -17357,7 +18020,7 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" ht="56.25">
+    <row r="107" spans="1:5" ht="54">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -17389,7 +18052,7 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" ht="75">
+    <row r="109" spans="1:5" ht="72">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -17436,7 +18099,7 @@
       </c>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" ht="56.25">
+    <row r="112" spans="1:5" ht="54">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -17639,7 +18302,7 @@
       </c>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" ht="56.25">
+    <row r="125" spans="1:5" ht="54">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -17791,7 +18454,7 @@
       </c>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" ht="37.5">
+    <row r="135" spans="1:5" ht="36">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -18088,7 +18751,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="37.5">
+    <row r="154" spans="1:5" ht="36">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -18105,7 +18768,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="37.5">
+    <row r="155" spans="1:5" ht="36">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -18122,7 +18785,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="56.25">
+    <row r="156" spans="1:5" ht="54">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -18154,7 +18817,7 @@
       </c>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" ht="37.5">
+    <row r="158" spans="1:5" ht="36">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -18216,7 +18879,7 @@
       </c>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" ht="75">
+    <row r="162" spans="1:5" ht="72">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -18477,7 +19140,7 @@
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" ht="56.25">
+    <row r="179" spans="1:5" ht="54">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -18824,7 +19487,7 @@
       </c>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" ht="37.5">
+    <row r="202" spans="1:5" ht="36">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -18903,7 +19566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="75">
+    <row r="207" spans="1:5" ht="72">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -18948,7 +19611,7 @@
       </c>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" ht="37.5">
+    <row r="210" spans="1:5" ht="36">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -19025,7 +19688,7 @@
       </c>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" ht="56.25">
+    <row r="215" spans="1:5" ht="54">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -19055,7 +19718,7 @@
       </c>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" ht="56.25">
+    <row r="217" spans="1:5" ht="54">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -19072,7 +19735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="37.5">
+    <row r="218" spans="1:5" ht="36">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -19089,7 +19752,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="37.5">
+    <row r="219" spans="1:5" ht="36">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -19106,7 +19769,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="93.75">
+    <row r="220" spans="1:5" ht="90">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -19123,7 +19786,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="56.25">
+    <row r="221" spans="1:5" ht="54">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -19155,7 +19818,7 @@
       </c>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" ht="56.25">
+    <row r="223" spans="1:5" ht="54">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -19187,7 +19850,7 @@
       </c>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" ht="75">
+    <row r="225" spans="1:5" ht="54">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -19204,7 +19867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="56.25">
+    <row r="226" spans="1:5" ht="54">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -19313,7 +19976,7 @@
       </c>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" ht="56.25">
+    <row r="233" spans="1:5" ht="54">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -19347,7 +20010,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="37.5">
+    <row r="235" spans="1:5" ht="36">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -19409,7 +20072,7 @@
       </c>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" ht="37.5">
+    <row r="239" spans="1:5" ht="36">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -19533,7 +20196,7 @@
       </c>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" ht="37.5">
+    <row r="247" spans="1:5">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -19612,7 +20275,7 @@
       </c>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" ht="56.25">
+    <row r="252" spans="1:5" ht="54">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -19644,7 +20307,7 @@
       </c>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" ht="37.5">
+    <row r="254" spans="1:5" ht="36">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -19738,7 +20401,7 @@
       </c>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" ht="75">
+    <row r="260" spans="1:5" ht="54">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -20057,7 +20720,7 @@
       </c>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" ht="56.25">
+    <row r="281" spans="1:5" ht="54">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -20104,7 +20767,7 @@
       </c>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" ht="56.25">
+    <row r="284" spans="1:5" ht="54">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -20459,7 +21122,7 @@
       </c>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" ht="56.25">
+    <row r="307" spans="1:5" ht="54">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -20938,7 +21601,7 @@
       </c>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" ht="56.25">
+    <row r="338" spans="1:5" ht="54">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -21075,7 +21738,7 @@
       </c>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" ht="37.5">
+    <row r="347" spans="1:5" ht="36">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -21107,7 +21770,7 @@
       </c>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" ht="37.5">
+    <row r="349" spans="1:5" ht="36">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -21308,7 +21971,7 @@
       </c>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" ht="75">
+    <row r="362" spans="1:5" ht="72">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -21340,7 +22003,7 @@
       </c>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" ht="37.5">
+    <row r="364" spans="1:5" ht="36">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -21400,7 +22063,7 @@
       </c>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" ht="56.25">
+    <row r="368" spans="1:5" ht="54">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -21445,7 +22108,7 @@
       </c>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:6" ht="75">
+    <row r="371" spans="1:6" ht="72">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -21460,7 +22123,7 @@
       </c>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:6" ht="93.75">
+    <row r="372" spans="1:6" ht="90">
       <c r="A372" s="3">
         <v>371</v>
       </c>
@@ -21477,7 +22140,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="37.5">
+    <row r="373" spans="1:6" ht="36">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -21494,7 +22157,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="75">
+    <row r="374" spans="1:6" ht="72">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -21559,7 +22222,7 @@
       </c>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:6" ht="75">
+    <row r="378" spans="1:6" ht="72">
       <c r="A378" s="3">
         <v>377</v>
       </c>
@@ -21591,7 +22254,7 @@
       </c>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:6" ht="75">
+    <row r="380" spans="1:6" ht="72">
       <c r="A380" s="3">
         <v>379</v>
       </c>
@@ -21606,7 +22269,7 @@
       </c>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:6" ht="37.5">
+    <row r="381" spans="1:6" ht="36">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -21636,7 +22299,7 @@
       </c>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:6" ht="56.25">
+    <row r="383" spans="1:6" ht="54">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -21700,7 +22363,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="37.5">
+    <row r="387" spans="1:5" ht="36">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -21794,7 +22457,7 @@
       </c>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" ht="56.25">
+    <row r="393" spans="1:5" ht="54">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -21884,7 +22547,7 @@
       </c>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" ht="37.5">
+    <row r="399" spans="1:5" ht="36">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -21899,7 +22562,7 @@
       </c>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" ht="40.9" customHeight="1">
+    <row r="400" spans="1:5" ht="40.950000000000003" customHeight="1">
       <c r="A400" s="3">
         <v>399</v>
       </c>
@@ -21944,7 +22607,7 @@
       </c>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" ht="37.5">
+    <row r="403" spans="1:5" ht="36">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -21991,7 +22654,7 @@
       </c>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" ht="37.5">
+    <row r="406" spans="1:5" ht="36">
       <c r="A406" s="3">
         <v>405</v>
       </c>
@@ -22162,7 +22825,7 @@
       </c>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:6" ht="37.5">
+    <row r="417" spans="1:6" ht="36">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -22207,7 +22870,7 @@
       </c>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:6" ht="37.5">
+    <row r="420" spans="1:6" ht="36">
       <c r="A420" s="3">
         <v>419</v>
       </c>
@@ -22239,7 +22902,7 @@
       </c>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:6" ht="37.5">
+    <row r="422" spans="1:6" ht="36">
       <c r="A422" s="3">
         <v>421</v>
       </c>
@@ -22314,7 +22977,7 @@
       </c>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:6" ht="37.5">
+    <row r="427" spans="1:6" ht="36">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -22344,7 +23007,7 @@
       </c>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:6" ht="37.5">
+    <row r="429" spans="1:6" ht="36">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -22359,7 +23022,7 @@
       </c>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:6" ht="37.5">
+    <row r="430" spans="1:6" ht="36">
       <c r="A430" s="3">
         <v>429</v>
       </c>
@@ -22514,7 +23177,7 @@
       </c>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" ht="56.25">
+    <row r="440" spans="1:5" ht="54">
       <c r="A440" s="3">
         <v>439</v>
       </c>
@@ -22623,7 +23286,7 @@
       </c>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" ht="75">
+    <row r="447" spans="1:5" ht="72">
       <c r="A447" s="3">
         <v>446</v>
       </c>
@@ -22743,7 +23406,7 @@
       </c>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" ht="37.5">
+    <row r="455" spans="1:5" ht="36">
       <c r="A455" s="3">
         <v>454</v>
       </c>
@@ -22775,7 +23438,7 @@
       </c>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" ht="93.75">
+    <row r="457" spans="1:5" ht="90">
       <c r="A457" s="3">
         <v>456</v>
       </c>
@@ -22790,7 +23453,7 @@
       </c>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" ht="56.25">
+    <row r="458" spans="1:5" ht="54">
       <c r="A458" s="3">
         <v>457</v>
       </c>
@@ -22835,7 +23498,7 @@
       </c>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" ht="37.5">
+    <row r="461" spans="1:5" ht="36">
       <c r="A461" s="3">
         <v>460</v>
       </c>
@@ -22850,7 +23513,7 @@
       </c>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" ht="37.5">
+    <row r="462" spans="1:5" ht="36">
       <c r="A462" s="3">
         <v>461</v>
       </c>
@@ -22942,7 +23605,7 @@
       </c>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" ht="37.5">
+    <row r="468" spans="1:5" ht="36">
       <c r="A468" s="3">
         <v>467</v>
       </c>
@@ -23259,7 +23922,7 @@
       </c>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" ht="37.5">
+    <row r="489" spans="1:5" ht="36">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -23456,7 +24119,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="37.5">
+    <row r="502" spans="1:5" ht="36">
       <c r="A502" s="3">
         <v>501</v>
       </c>
@@ -23580,7 +24243,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="75">
+    <row r="510" spans="1:5" ht="72">
       <c r="A510" s="3">
         <v>509</v>
       </c>
@@ -23717,7 +24380,7 @@
       </c>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" ht="37.5">
+    <row r="519" spans="1:5" ht="36">
       <c r="A519" s="3">
         <v>518</v>
       </c>
@@ -23732,7 +24395,7 @@
       </c>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" ht="37.5">
+    <row r="520" spans="1:5" ht="36">
       <c r="A520" s="3">
         <v>519</v>
       </c>
@@ -23837,7 +24500,7 @@
       </c>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" ht="56.25">
+    <row r="527" spans="1:5" ht="54">
       <c r="A527" s="3">
         <v>526</v>
       </c>
@@ -23869,7 +24532,7 @@
       </c>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" ht="37.5">
+    <row r="529" spans="1:5" ht="36">
       <c r="A529" s="3">
         <v>528</v>
       </c>
@@ -24019,7 +24682,7 @@
       </c>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" ht="37.5">
+    <row r="539" spans="1:5" ht="36">
       <c r="A539" s="3">
         <v>538</v>
       </c>
@@ -24400,7 +25063,7 @@
       </c>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" ht="56.25">
+    <row r="564" spans="1:5" ht="54">
       <c r="A564" s="3">
         <v>563</v>
       </c>
@@ -24526,7 +25189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="37.5">
+    <row r="572" spans="1:5" ht="36">
       <c r="A572" s="3">
         <v>571</v>
       </c>
@@ -24856,7 +25519,7 @@
       </c>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" ht="75">
+    <row r="594" spans="1:5" ht="72">
       <c r="A594" s="3">
         <v>593</v>
       </c>
@@ -24948,7 +25611,7 @@
       </c>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" ht="56.25">
+    <row r="600" spans="1:5" ht="54">
       <c r="A600" s="3">
         <v>599</v>
       </c>
@@ -25177,7 +25840,7 @@
       </c>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" ht="56.25">
+    <row r="615" spans="1:5" ht="54">
       <c r="A615" s="3">
         <v>614</v>
       </c>
@@ -25594,7 +26257,7 @@
       </c>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" ht="37.5">
+    <row r="642" spans="1:5" ht="36">
       <c r="A642" s="3">
         <v>641</v>
       </c>
@@ -25761,7 +26424,7 @@
       </c>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" ht="37.5">
+    <row r="653" spans="1:5" ht="36">
       <c r="A653" s="3">
         <v>652</v>
       </c>
@@ -26187,7 +26850,7 @@
       </c>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" ht="37.5">
+    <row r="681" spans="1:5">
       <c r="A681" s="3">
         <v>680</v>
       </c>
@@ -26491,7 +27154,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="37.5">
+    <row r="701" spans="1:5" ht="36">
       <c r="A701" s="3">
         <v>700</v>
       </c>
@@ -26752,7 +27415,7 @@
       </c>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" ht="37.5">
+    <row r="718" spans="1:5" ht="36">
       <c r="A718" s="3">
         <v>717</v>
       </c>
@@ -26857,7 +27520,7 @@
       </c>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" ht="37.5">
+    <row r="725" spans="1:5" ht="36">
       <c r="A725" s="3">
         <v>724</v>
       </c>
@@ -26917,7 +27580,7 @@
       </c>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" ht="37.5">
+    <row r="729" spans="1:5" ht="36">
       <c r="A729" s="3">
         <v>728</v>
       </c>
@@ -27369,7 +28032,7 @@
       </c>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" ht="37.5">
+    <row r="759" spans="1:5" ht="36">
       <c r="A759" s="3">
         <v>758</v>
       </c>
@@ -27722,7 +28385,7 @@
       </c>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" ht="37.5">
+    <row r="782" spans="1:5" ht="36">
       <c r="A782" s="3">
         <v>781</v>
       </c>
@@ -28381,7 +29044,7 @@
       </c>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" ht="37.5">
+    <row r="825" spans="1:5" ht="36">
       <c r="A825" s="3">
         <v>824</v>
       </c>
@@ -28531,7 +29194,7 @@
       </c>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" ht="37.5">
+    <row r="835" spans="1:5" ht="36">
       <c r="A835" s="3">
         <v>834</v>
       </c>
@@ -29327,7 +29990,7 @@
       </c>
       <c r="E886" s="1"/>
     </row>
-    <row r="887" spans="1:5" ht="37.5">
+    <row r="887" spans="1:5" ht="36">
       <c r="A887" s="3">
         <v>886</v>
       </c>
@@ -29481,7 +30144,7 @@
       </c>
       <c r="E896" s="1"/>
     </row>
-    <row r="897" spans="1:5" ht="56.25">
+    <row r="897" spans="1:5" ht="54">
       <c r="A897" s="3">
         <v>896</v>
       </c>
@@ -29939,7 +30602,7 @@
       </c>
       <c r="E926" s="1"/>
     </row>
-    <row r="927" spans="1:5" ht="56.25">
+    <row r="927" spans="1:5" ht="54">
       <c r="A927" s="3">
         <v>926</v>
       </c>
@@ -30320,7 +30983,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="952" spans="1:5" ht="37.5">
+    <row r="952" spans="1:5" ht="36">
       <c r="A952" s="3">
         <v>951</v>
       </c>
@@ -30547,7 +31210,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="967" spans="1:5" ht="37.5">
+    <row r="967" spans="1:5" ht="36">
       <c r="A967" s="3">
         <v>966</v>
       </c>
@@ -31275,6 +31938,289 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220D043-C7E1-42AF-AF0B-3197BF9F81B5}">
+  <dimension ref="C2:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="3:13">
+      <c r="C2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3063</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3061</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
+      <c r="I3" t="s">
+        <v>3064</v>
+      </c>
+      <c r="J3">
+        <v>645</v>
+      </c>
+      <c r="K3">
+        <v>650</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3+1</f>
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="I4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="J4">
+        <v>650</v>
+      </c>
+      <c r="K4">
+        <v>654</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L31" si="0">K4-J4+1</f>
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="I5" t="s">
+        <v>3067</v>
+      </c>
+      <c r="J5">
+        <v>686</v>
+      </c>
+      <c r="K5">
+        <v>686</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="I6" t="s">
+        <v>3068</v>
+      </c>
+      <c r="J6">
+        <v>701</v>
+      </c>
+      <c r="K6">
+        <v>704</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="I7" t="s">
+        <v>3073</v>
+      </c>
+      <c r="J7">
+        <v>704</v>
+      </c>
+      <c r="K7">
+        <v>708</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="I8" t="s">
+        <v>3075</v>
+      </c>
+      <c r="J8">
+        <v>708</v>
+      </c>
+      <c r="K8">
+        <v>715</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="12:12">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="12:12">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="12:12">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="12:12">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="12:12">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70D3319-9AC3-4632-99C9-050D29036315}">
   <dimension ref="B3:D60"/>
@@ -31283,13 +32229,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="66.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="66.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="37.5">
+    <row r="3" spans="2:4" ht="36">
       <c r="B3" s="9" cm="1">
         <f t="array" ref="B3:D60">_xlfn._xlws.FILTER(クイズ!A2:C1001, ISNUMBER(SEARCH("」という意味", クイズ!B2:B1001)))</f>
         <v>16</v>
@@ -31301,7 +32247,7 @@
         <v>お転婆</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="37.5">
+    <row r="4" spans="2:4" ht="36">
       <c r="B4" s="9">
         <v>23</v>
       </c>
@@ -31312,7 +32258,7 @@
         <v>たほいや</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="56.25">
+    <row r="5" spans="2:4" ht="36">
       <c r="B5" s="9">
         <v>25</v>
       </c>
@@ -31323,7 +32269,7 @@
         <v>ラニーニャ現象</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5">
+    <row r="6" spans="2:4" ht="36">
       <c r="B6" s="9">
         <v>30</v>
       </c>
@@ -31334,7 +32280,7 @@
         <v>ムニン</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="37.5">
+    <row r="7" spans="2:4" ht="36">
       <c r="B7" s="9">
         <v>124</v>
       </c>
@@ -31345,7 +32291,7 @@
         <v>ミルフィーユ</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="37.5">
+    <row r="8" spans="2:4" ht="36">
       <c r="B8" s="9">
         <v>135</v>
       </c>
@@ -31356,7 +32302,7 @@
         <v>カルトン</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.5">
+    <row r="9" spans="2:4" ht="36">
       <c r="B9" s="9">
         <v>158</v>
       </c>
@@ -31367,7 +32313,7 @@
         <v>インティ・ライミ</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="37.5">
+    <row r="10" spans="2:4" ht="36">
       <c r="B10" s="9">
         <v>163</v>
       </c>
@@ -31378,7 +32324,7 @@
         <v>サッカー台</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="37.5">
+    <row r="11" spans="2:4" ht="36">
       <c r="B11" s="9">
         <v>168</v>
       </c>
@@ -31389,7 +32335,7 @@
         <v>カテナチオ</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="37.5">
+    <row r="12" spans="2:4" ht="36">
       <c r="B12" s="9">
         <v>192</v>
       </c>
@@ -31400,7 +32346,7 @@
         <v>Q.E.D</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="37.5">
+    <row r="13" spans="2:4" ht="36">
       <c r="B13" s="9">
         <v>199</v>
       </c>
@@ -31411,7 +32357,7 @@
         <v>ノーサイド</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="37.5">
+    <row r="14" spans="2:4" ht="36">
       <c r="B14" s="9">
         <v>232</v>
       </c>
@@ -31422,7 +32368,7 @@
         <v>ラング・ド・シャ</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="37.5">
+    <row r="15" spans="2:4" ht="36">
       <c r="B15" s="9">
         <v>239</v>
       </c>
@@ -31433,7 +32379,7 @@
         <v>アルバトロス</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="37.5">
+    <row r="16" spans="2:4" ht="36">
       <c r="B16" s="9">
         <v>261</v>
       </c>
@@ -31444,7 +32390,7 @@
         <v>アルベド</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="37.5">
+    <row r="17" spans="2:4" ht="36">
       <c r="B17" s="9">
         <v>272</v>
       </c>
@@ -31455,7 +32401,7 @@
         <v>天地無用</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="56.25">
+    <row r="18" spans="2:4" ht="54">
       <c r="B18" s="9">
         <v>291</v>
       </c>
@@ -31466,7 +32412,7 @@
         <v>デウス・エクス・マキナ</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="37.5">
+    <row r="19" spans="2:4" ht="36">
       <c r="B19" s="9">
         <v>331</v>
       </c>
@@ -31477,7 +32423,7 @@
         <v>スヌーズ</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="37.5">
+    <row r="20" spans="2:4" ht="36">
       <c r="B20" s="9">
         <v>346</v>
       </c>
@@ -31488,7 +32434,7 @@
         <v>アカペラ</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="37.5">
+    <row r="21" spans="2:4" ht="36">
       <c r="B21" s="9">
         <v>386</v>
       </c>
@@ -31499,7 +32445,7 @@
         <v>メニスカス</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="37.5">
+    <row r="22" spans="2:4" ht="36">
       <c r="B22" s="9">
         <v>400</v>
       </c>
@@ -31510,7 +32456,7 @@
         <v>巨人の肩の上に立つ</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="37.5">
+    <row r="23" spans="2:4" ht="36">
       <c r="B23" s="9">
         <v>410</v>
       </c>
@@ -31521,7 +32467,7 @@
         <v>デミグラスソース</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="37.5">
+    <row r="24" spans="2:4" ht="36">
       <c r="B24" s="9">
         <v>419</v>
       </c>
@@ -31532,7 +32478,7 @@
         <v>トリアージ</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="37.5">
+    <row r="25" spans="2:4" ht="36">
       <c r="B25" s="9">
         <v>460</v>
       </c>
@@ -31543,7 +32489,7 @@
         <v>コル・カロリ</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="37.5">
+    <row r="26" spans="2:4" ht="36">
       <c r="B26" s="9">
         <v>467</v>
       </c>
@@ -31554,7 +32500,7 @@
         <v>ブルペン</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="37.5">
+    <row r="27" spans="2:4" ht="36">
       <c r="B27" s="9">
         <v>490</v>
       </c>
@@ -31565,7 +32511,7 @@
         <v>ラ・クンパルシータ</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="37.5">
+    <row r="28" spans="2:4" ht="36">
       <c r="B28" s="9">
         <v>497</v>
       </c>
@@ -31576,7 +32522,7 @@
         <v>スウッシュ</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="37.5">
+    <row r="29" spans="2:4" ht="36">
       <c r="B29" s="9">
         <v>509</v>
       </c>
@@ -31587,7 +32533,7 @@
         <v>パルムドール</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="37.5">
+    <row r="30" spans="2:4" ht="36">
       <c r="B30" s="9">
         <v>517</v>
       </c>
@@ -31598,7 +32544,7 @@
         <v>ハロゲン</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="37.5">
+    <row r="31" spans="2:4" ht="36">
       <c r="B31" s="9">
         <v>532</v>
       </c>
@@ -31609,7 +32555,7 @@
         <v>マチュ・ピチュ</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="37.5">
+    <row r="32" spans="2:4" ht="36">
       <c r="B32" s="9">
         <v>546</v>
       </c>
@@ -31620,7 +32566,7 @@
         <v>アンティパスト</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="37.5">
+    <row r="33" spans="2:4" ht="36">
       <c r="B33" s="9">
         <v>563</v>
       </c>
@@ -31631,7 +32577,7 @@
         <v>アンシャンレジーム</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="37.5">
+    <row r="34" spans="2:4" ht="36">
       <c r="B34" s="9">
         <v>573</v>
       </c>
@@ -31642,7 +32588,7 @@
         <v>レッサーパンダ</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="37.5">
+    <row r="35" spans="2:4" ht="36">
       <c r="B35" s="9">
         <v>583</v>
       </c>
@@ -31653,7 +32599,7 @@
         <v>シャーレ</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="37.5">
+    <row r="36" spans="2:4" ht="36">
       <c r="B36" s="9">
         <v>587</v>
       </c>
@@ -31664,7 +32610,7 @@
         <v>ミクロネシア</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="37.5">
+    <row r="37" spans="2:4" ht="36">
       <c r="B37" s="9">
         <v>622</v>
       </c>
@@ -31675,7 +32621,7 @@
         <v>ルーマニア</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="37.5">
+    <row r="38" spans="2:4" ht="36">
       <c r="B38" s="9">
         <v>628</v>
       </c>
@@ -31686,7 +32632,7 @@
         <v>荼毘</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="37.5">
+    <row r="39" spans="2:4" ht="36">
       <c r="B39" s="9">
         <v>643</v>
       </c>
@@ -31697,7 +32643,7 @@
         <v>クロワッサン</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="37.5">
+    <row r="40" spans="2:4" ht="36">
       <c r="B40" s="9">
         <v>648</v>
       </c>
@@ -31708,7 +32654,7 @@
         <v>ムーラン・ルージュ</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="37.5">
+    <row r="41" spans="2:4" ht="36">
       <c r="B41" s="9">
         <v>670</v>
       </c>
@@ -31719,7 +32665,7 @@
         <v>アイネ・クライネ・ナハトムジーク</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="37.5">
+    <row r="42" spans="2:4" ht="36">
       <c r="B42" s="9">
         <v>677</v>
       </c>
@@ -31730,7 +32676,7 @@
         <v>ピッコロ</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="37.5">
+    <row r="43" spans="2:4" ht="36">
       <c r="B43" s="9">
         <v>687</v>
       </c>
@@ -31741,7 +32687,7 @@
         <v>ミカエル</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="37.5">
+    <row r="44" spans="2:4" ht="36">
       <c r="B44" s="9">
         <v>692</v>
       </c>
@@ -31752,7 +32698,7 @@
         <v>チョーカー</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="37.5">
+    <row r="45" spans="2:4" ht="36">
       <c r="B45" s="9">
         <v>700</v>
       </c>
@@ -31763,7 +32709,7 @@
         <v>アンカー</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="37.5">
+    <row r="46" spans="2:4" ht="36">
       <c r="B46" s="9">
         <v>714</v>
       </c>
@@ -31774,7 +32720,7 @@
         <v>アオザイ</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="37.5">
+    <row r="47" spans="2:4" ht="36">
       <c r="B47" s="9">
         <v>720</v>
       </c>
@@ -31785,7 +32731,7 @@
         <v>ホワイエ</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="37.5">
+    <row r="48" spans="2:4" ht="36">
       <c r="B48" s="9">
         <v>727</v>
       </c>
@@ -31796,7 +32742,7 @@
         <v>ペルソナ・ノン・グラータ</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="37.5">
+    <row r="49" spans="2:4" ht="36">
       <c r="B49" s="9">
         <v>741</v>
       </c>
@@ -31807,7 +32753,7 @@
         <v>ノルマ</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="37.5">
+    <row r="50" spans="2:4" ht="36">
       <c r="B50" s="9">
         <v>748</v>
       </c>
@@ -31818,7 +32764,7 @@
         <v>ゲレンデ</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="37.5">
+    <row r="51" spans="2:4" ht="36">
       <c r="B51" s="9">
         <v>783</v>
       </c>
@@ -31840,7 +32786,7 @@
         <v>レグルス</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="37.5">
+    <row r="53" spans="2:4" ht="36">
       <c r="B53" s="9">
         <v>800</v>
       </c>
@@ -31851,7 +32797,7 @@
         <v>エルミタージュ美術館</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="37.5">
+    <row r="54" spans="2:4" ht="36">
       <c r="B54">
         <v>806</v>
       </c>
@@ -31862,7 +32808,7 @@
         <v>アトマイザー</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="37.5">
+    <row r="55" spans="2:4" ht="36">
       <c r="B55">
         <v>833</v>
       </c>
@@ -31873,7 +32819,7 @@
         <v>マスカラ</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="37.5">
+    <row r="56" spans="2:4" ht="36">
       <c r="B56">
         <v>851</v>
       </c>
@@ -31884,7 +32830,7 @@
         <v>UNO</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="37.5">
+    <row r="57" spans="2:4" ht="36">
       <c r="B57">
         <v>863</v>
       </c>
@@ -31895,7 +32841,7 @@
         <v>ウクレレ</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="37.5">
+    <row r="58" spans="2:4" ht="36">
       <c r="B58">
         <v>864</v>
       </c>
@@ -31906,7 +32852,7 @@
         <v>モンスーン</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="37.5">
+    <row r="59" spans="2:4" ht="36">
       <c r="B59">
         <v>951</v>
       </c>
@@ -31917,7 +32863,7 @@
         <v>オナー</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="37.5">
+    <row r="60" spans="2:4" ht="36">
       <c r="B60">
         <v>990</v>
       </c>
@@ -31940,14 +32886,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="37.5">
+    <row r="3" spans="2:5" ht="36">
       <c r="B3" s="10">
         <v>104</v>
       </c>
@@ -31961,7 +32907,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="37.5">
+    <row r="4" spans="2:5" ht="36">
       <c r="B4" s="10">
         <v>113</v>
       </c>
@@ -31975,7 +32921,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="37.5">
+    <row r="5" spans="2:5" ht="36">
       <c r="B5" s="10">
         <v>114</v>
       </c>
@@ -31999,7 +32945,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="37.5">
+    <row r="7" spans="2:5" ht="36">
       <c r="B7" s="10">
         <v>116</v>
       </c>
@@ -32059,7 +33005,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="37.5">
+    <row r="12" spans="2:5">
       <c r="B12" s="10">
         <v>188</v>
       </c>
@@ -32071,7 +33017,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="37.5">
+    <row r="13" spans="2:5" ht="36">
       <c r="B13" s="10">
         <v>189</v>
       </c>
@@ -32098,11 +33044,11 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="3" max="3" width="56.69921875" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -32119,7 +33065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="56.25">
+    <row r="3" spans="2:5" ht="54">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -32131,7 +33077,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="37.5">
+    <row r="4" spans="2:5" ht="36">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -32143,7 +33089,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="56.25">
+    <row r="5" spans="2:5" ht="54">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -32157,7 +33103,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="37.5">
+    <row r="6" spans="2:5" ht="36">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -32169,7 +33115,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="56.25">
+    <row r="7" spans="2:5" ht="54">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -32649,11 +33595,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="3" max="3" width="56.69921875" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -32670,7 +33616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="56.25">
+    <row r="3" spans="2:5" ht="54">
       <c r="B3" s="3">
         <f t="shared" ref="B3:B34" si="0">ROW()-2</f>
         <v>1</v>
@@ -32683,7 +33629,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="37.5">
+    <row r="4" spans="2:5" ht="36">
       <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32696,7 +33642,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="56.25">
+    <row r="5" spans="2:5" ht="36">
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32709,7 +33655,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="56.25">
+    <row r="6" spans="2:5" ht="54">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32722,7 +33668,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="56.25">
+    <row r="7" spans="2:5" ht="54">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32735,7 +33681,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" ht="37.5">
+    <row r="8" spans="2:5" ht="36">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32748,7 +33694,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="56.25">
+    <row r="9" spans="2:5" ht="36">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32761,7 +33707,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="56.25">
+    <row r="10" spans="2:5" ht="54">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32776,7 +33722,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="56.25">
+    <row r="11" spans="2:5" ht="54">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32789,7 +33735,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" ht="37.5">
+    <row r="12" spans="2:5" ht="36">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32802,7 +33748,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" ht="56.25">
+    <row r="13" spans="2:5" ht="54">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32815,7 +33761,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" ht="56.25">
+    <row r="14" spans="2:5" ht="54">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32841,7 +33787,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" ht="56.25">
+    <row r="16" spans="2:5" ht="36">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -32854,7 +33800,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" ht="37.5">
+    <row r="17" spans="2:5" ht="36">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -32867,7 +33813,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" ht="37.5">
+    <row r="18" spans="2:5" ht="36">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -32880,7 +33826,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" ht="37.5">
+    <row r="19" spans="2:5" ht="36">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -33352,7 +34298,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:5" ht="37.5">
+    <row r="61" spans="2:5" ht="36">
       <c r="B61" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -33400,19 +34346,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B396593-E278-4A82-9CA2-BC110849857F}">
   <dimension ref="B2:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="131.25">
+    <row r="2" spans="2:8" ht="126">
       <c r="C2" t="s">
         <v>3295</v>
       </c>
@@ -33443,7 +34389,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="37.5">
+    <row r="4" spans="2:8" ht="36">
       <c r="B4" s="3">
         <f t="shared" ref="B4:B35" si="0">ROW()-3</f>
         <v>1</v>
@@ -33465,7 +34411,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="2:8" ht="93.75">
+    <row r="5" spans="2:8" ht="90">
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -33489,7 +34435,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="56.25">
+    <row r="6" spans="2:8" ht="54">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -33513,7 +34459,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="75">
+    <row r="7" spans="2:8" ht="54">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -33537,7 +34483,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="56.25">
+    <row r="8" spans="2:8" ht="54">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -33561,7 +34507,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="56.25">
+    <row r="9" spans="2:8" ht="54">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -33583,7 +34529,7 @@
       </c>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="2:8" ht="56.25">
+    <row r="10" spans="2:8" ht="54">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -33605,7 +34551,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="2:8" ht="56.25">
+    <row r="11" spans="2:8" ht="54">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -33629,7 +34575,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="56.25">
+    <row r="12" spans="2:8" ht="54">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -33653,7 +34599,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="56.25">
+    <row r="13" spans="2:8" ht="54">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -33677,7 +34623,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="56.25">
+    <row r="14" spans="2:8" ht="54">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -33699,7 +34645,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="2:8" ht="56.25">
+    <row r="15" spans="2:8" ht="54">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -33738,7 +34684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="56.25">
+    <row r="17" spans="2:7" ht="54">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -33757,7 +34703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="56.25">
+    <row r="18" spans="2:7" ht="54">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -34388,20 +35334,874 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A20E3A-D4EE-43CF-B10B-AB3199059CDA}">
+  <dimension ref="B2:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="C2" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="72">
+      <c r="B4" s="3">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="54">
+      <c r="B5" s="3">
+        <f>ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="54">
+      <c r="B6" s="3">
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>3333</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="2:8" ht="36">
+      <c r="B7" s="3">
+        <f>ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>3362</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>3332</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="90">
+      <c r="B8" s="3">
+        <f>ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="2:8" ht="54">
+      <c r="B9" s="3">
+        <f>ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="2:8" ht="72">
+      <c r="B10" s="3">
+        <f>ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="43" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="54">
+      <c r="B11" s="3">
+        <f>ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="29" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="108">
+      <c r="B12" s="3">
+        <f>ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>3366</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>3334</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="2:8" ht="54">
+      <c r="B13" s="3">
+        <f>ROW()-3</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="2:8" ht="90">
+      <c r="B14" s="3">
+        <f>ROW()-3</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="42" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="29" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="3">
+        <f>ROW()-3</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="3">
+        <f>ROW()-3</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3">
+        <f>ROW()-3</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="32" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>3331</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="3">
+        <f>ROW()-3</f>
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3">
+        <f>ROW()-3</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3">
+        <f>ROW()-3</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3">
+        <f>ROW()-3</f>
+        <v>18</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3">
+        <f>ROW()-3</f>
+        <v>19</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3">
+        <f>ROW()-3</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3">
+        <f>ROW()-3</f>
+        <v>21</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="3">
+        <f>ROW()-3</f>
+        <v>22</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="3">
+        <f>ROW()-3</f>
+        <v>23</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="3">
+        <f>ROW()-3</f>
+        <v>24</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="3">
+        <f>ROW()-3</f>
+        <v>25</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="3">
+        <f>ROW()-3</f>
+        <v>26</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="3">
+        <f>ROW()-3</f>
+        <v>27</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="3">
+        <f>ROW()-3</f>
+        <v>28</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="3">
+        <f>ROW()-3</f>
+        <v>29</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="3">
+        <f>ROW()-3</f>
+        <v>30</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3">
+        <f>ROW()-3</f>
+        <v>31</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="3">
+        <f>ROW()-3</f>
+        <v>32</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="3">
+        <f>ROW()-3</f>
+        <v>33</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="3">
+        <f>ROW()-3</f>
+        <v>34</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3">
+        <f>ROW()-3</f>
+        <v>35</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3">
+        <f>ROW()-3</f>
+        <v>36</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="3">
+        <f>ROW()-3</f>
+        <v>37</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="3">
+        <f>ROW()-3</f>
+        <v>38</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="3">
+        <f>ROW()-3</f>
+        <v>39</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="3">
+        <f>ROW()-3</f>
+        <v>40</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="3">
+        <f>ROW()-3</f>
+        <v>41</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="3">
+        <f>ROW()-3</f>
+        <v>42</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="3">
+        <f>ROW()-3</f>
+        <v>43</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="3">
+        <f>ROW()-3</f>
+        <v>44</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="3">
+        <f>ROW()-3</f>
+        <v>45</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="3">
+        <f>ROW()-3</f>
+        <v>46</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="3">
+        <f>ROW()-3</f>
+        <v>47</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="3">
+        <f>ROW()-3</f>
+        <v>48</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="3">
+        <f>ROW()-3</f>
+        <v>49</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="3">
+        <f>ROW()-3</f>
+        <v>50</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3">
+        <f>ROW()-3</f>
+        <v>51</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="3">
+        <f>ROW()-3</f>
+        <v>52</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="3">
+        <f>ROW()-3</f>
+        <v>53</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="3">
+        <f>ROW()-3</f>
+        <v>54</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="3">
+        <f>ROW()-3</f>
+        <v>55</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="3">
+        <f>ROW()-3</f>
+        <v>56</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="3">
+        <f>ROW()-3</f>
+        <v>57</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="3">
+        <f>ROW()-3</f>
+        <v>58</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="3">
+        <f>ROW()-3</f>
+        <v>59</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="3">
+        <f>ROW()-3</f>
+        <v>60</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="3">
+        <f>ROW()-3</f>
+        <v>61</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B3:H3" xr:uid="{4B396593-E278-4A82-9CA2-BC110849857F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:H64">
+      <sortCondition ref="C3"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F8117F-FC71-4B2C-9E6F-7B7BDBB12DA5}">
   <dimension ref="B2:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="3.75" customWidth="1"/>
-    <col min="22" max="22" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="74.25" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="3.69921875" customWidth="1"/>
+    <col min="22" max="22" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="74.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
@@ -35054,7 +36854,7 @@
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
     </row>
-    <row r="18" spans="24:24" ht="281.25">
+    <row r="18" spans="24:24" ht="270">
       <c r="X18" s="25" t="s">
         <v>3321</v>
       </c>
@@ -35066,15 +36866,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B8240E-E47F-4D5D-9EEE-8A7C17D816DF}">
   <dimension ref="C1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10">
@@ -35281,289 +37081,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220D043-C7E1-42AF-AF0B-3197BF9F81B5}">
-  <dimension ref="C2:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="2" spans="3:13">
-      <c r="C2" t="s">
-        <v>3060</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3061</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3062</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3063</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3061</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3062</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3065</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="3" spans="3:13">
-      <c r="I3" t="s">
-        <v>3064</v>
-      </c>
-      <c r="J3">
-        <v>645</v>
-      </c>
-      <c r="K3">
-        <v>650</v>
-      </c>
-      <c r="L3">
-        <f>K3-J3+1</f>
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13">
-      <c r="I4" t="s">
-        <v>3066</v>
-      </c>
-      <c r="J4">
-        <v>650</v>
-      </c>
-      <c r="K4">
-        <v>654</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L31" si="0">K4-J4+1</f>
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13">
-      <c r="I5" t="s">
-        <v>3067</v>
-      </c>
-      <c r="J5">
-        <v>686</v>
-      </c>
-      <c r="K5">
-        <v>686</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13">
-      <c r="I6" t="s">
-        <v>3068</v>
-      </c>
-      <c r="J6">
-        <v>701</v>
-      </c>
-      <c r="K6">
-        <v>704</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
-      <c r="I7" t="s">
-        <v>3073</v>
-      </c>
-      <c r="J7">
-        <v>704</v>
-      </c>
-      <c r="K7">
-        <v>708</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13">
-      <c r="I8" t="s">
-        <v>3075</v>
-      </c>
-      <c r="J8">
-        <v>708</v>
-      </c>
-      <c r="K8">
-        <v>715</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="12:12">
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="12:12">
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="12:12">
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="12:12">
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="12:12">
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="12:12">
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="12:12">
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="12:12">
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="12:12">
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="12:12">
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="12:12">
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="12:12">
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="12:12">
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>